--- a/data_set.xlsx
+++ b/data_set.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="33">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
@@ -111,939 +111,6 @@
   </si>
   <si>
     <t xml:space="preserve">DECEMBER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.91B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.27B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.83B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.08B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.02B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.82B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.81B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.06B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.60B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.58B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.60B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.50B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.52B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.29B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.77B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.00B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.62B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.17B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.83B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.49B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.28B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.71B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.59B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168.10B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.50B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.65B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.78B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.10B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.34B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174.31B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174.80B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.29B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.78B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.57B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.70B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.49B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.42B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.47B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.00B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.70B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.54B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.09B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.47B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.81B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187.34B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.55B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189.05B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190.81B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189.17B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.27B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193.99B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.71B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196.21B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196.13B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196.23B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196.22B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">198.84B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200.49B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200.20B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201.19B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202.41B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204.27B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204.96B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203.37B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201.68B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204.67B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207.05B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207.64B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208.30B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208.06B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208.98B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209.38B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209.68B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209.53B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210.79B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213.62B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214.62B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216.32B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214.85B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213.67B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215.71B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219.46B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221.15B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223.23B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224.02B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226.24B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">227.41B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228.98B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231.24B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231.93B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">233.93B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">236.59B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237.52B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237.56B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240.46B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245.50B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">243.48B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247.13B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249.85B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245.79B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">246.22B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">248.18B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247.18B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247.60B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">251.81B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">251.27B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250.22B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250.60B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252.74B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252.73B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250.35B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254.76B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255.26B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254.02B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">253.02B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254.57B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249.86B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">268.07B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260.36B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256.55B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256.38B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257.68B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257.06B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">261.32B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257.62B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">259.82B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">262.81B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">264.98B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260.65B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">262.01B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">263.56B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265.80B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">267.28B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">263.20B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">267.84B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">267.24B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">267.35B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270.43B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">273.39B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">277.90B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">276.41B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">274.78B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278.32B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">277.57B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278.88B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">280.97B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">286.23B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">282.97B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">288.25B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">284.15B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287.34B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287.91B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">293.18B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">295.06B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296.18B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">299.77B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">297.19B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300.38B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300.21B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304.82B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301.77B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311.02B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">313.69B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">309.72B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">310.43B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">310.77B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">313.06B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">313.44B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">322.60B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">320.12B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">321.53B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">322.46B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">321.51B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">323.03B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">324.48B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">325.13B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">322.82B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">322.65B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">323.41B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">327.24B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">327.07B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">328.08B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">331.14B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">329.40B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">334.16B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">330.89B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">332.20B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">333.79B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">335.71B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">337.29B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340.76B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">336.98B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">337.56B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">334.45B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">334.37B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">336.15B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">337.70B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">338.44B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">336.51B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">333.81B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">327.82B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">314.78B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301.84B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">294.00B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">298.88B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">297.86B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">292.70B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">293.58B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296.57B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301.82B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302.57B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">309.10B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300.84B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304.13B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307.13B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">308.52B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">308.85B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">308.70B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">316.21B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">318.42B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315.80B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">314.95B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315.54B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">317.15B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">320.05B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">324.34B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">327.60B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">329.72B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">332.55B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">334.58B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">337.86B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">339.70B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">339.35B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">341.54B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">341.49B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">341.82B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">345.25B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">348.09B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">349.28B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">349.74B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">352.55B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">357.17B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">358.87B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">356.67B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">356.13B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">352.17B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">353.79B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">358.19B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">361.68B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">361.82B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">362.98B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">364.80B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">367.27B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">372.04B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">367.50B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">368.77B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">369.46B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">371.45B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">373.08B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">372.11B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">372.45B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">373.77B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">374.23B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">376.82B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">373.42B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">378.38B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">382.74B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">385.98B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">386.70B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">387.91B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">387.49B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">390.33B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">389.13B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">391.78B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">387.81B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">385.41B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">383.34B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">389.63B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">390.62B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">394.56B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">394.46B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">397.26B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">397.20B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">397.08B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">395.85B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">397.46B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">398.76B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">395.25B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">396.93B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">397.09B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">399.74B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">401.08B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">405.58B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">404.84B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">404.90B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">407.37B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">410.52B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">409.62B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">414.55B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">417.14B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">416.20B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">416.72B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">418.41B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">418.38B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">418.02B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420.26B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">419.88B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">429.62B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">432.58B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">436.50B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">437.83B</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1188,7 +255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1222,11 +289,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1260,28 +331,28 @@
   </sheetPr>
   <dimension ref="A1:AD699"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A442" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E697"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2:O697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="28.0612244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="20.25"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="30" min="18" style="1" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="30" min="18" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="12.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1390,7 +461,9 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="O2" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P2" s="1" t="n">
         <v>61.5</v>
       </c>
@@ -1451,7 +524,9 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="O3" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P3" s="1" t="n">
         <v>52.3</v>
       </c>
@@ -1512,7 +587,9 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="O4" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P4" s="1" t="n">
         <v>47.8</v>
       </c>
@@ -1573,7 +650,9 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="O5" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P5" s="1" t="n">
         <v>45.3</v>
       </c>
@@ -1634,7 +713,9 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="O6" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P6" s="1" t="n">
         <v>42.6</v>
       </c>
@@ -1695,7 +776,9 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="O7" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P7" s="1" t="n">
         <v>44.4</v>
       </c>
@@ -1756,7 +839,9 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="O8" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P8" s="1" t="n">
         <v>43.7</v>
       </c>
@@ -1817,7 +902,9 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P9" s="1" t="n">
         <v>47.6</v>
       </c>
@@ -1878,7 +965,9 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="O10" s="8" t="n">
+        <v>16</v>
+      </c>
       <c r="P10" s="1" t="n">
         <v>45.4</v>
       </c>
@@ -1939,7 +1028,9 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P11" s="1" t="n">
         <v>46</v>
       </c>
@@ -2000,7 +1091,9 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="O12" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P12" s="1" t="n">
         <v>44.3</v>
       </c>
@@ -2061,7 +1154,9 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="O13" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P13" s="1" t="n">
         <v>44.3</v>
       </c>
@@ -2122,7 +1217,9 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P14" s="1" t="n">
         <v>43.9</v>
       </c>
@@ -2183,7 +1280,9 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="O15" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P15" s="1" t="n">
         <v>43.6</v>
       </c>
@@ -2244,7 +1343,9 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="O16" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P16" s="1" t="n">
         <v>49.1</v>
       </c>
@@ -2305,7 +1406,9 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P17" s="1" t="n">
         <v>57.6</v>
       </c>
@@ -2366,7 +1469,9 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="O18" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P18" s="1" t="n">
         <v>58.9</v>
       </c>
@@ -2427,7 +1532,9 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="O19" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P19" s="1" t="n">
         <v>58.1</v>
       </c>
@@ -2488,7 +1595,9 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="O20" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P20" s="1" t="n">
         <v>58.2</v>
       </c>
@@ -2549,7 +1658,9 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="O21" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P21" s="1" t="n">
         <v>60.7</v>
       </c>
@@ -2610,7 +1721,9 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P22" s="1" t="n">
         <v>63</v>
       </c>
@@ -2671,7 +1784,9 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="O23" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P23" s="1" t="n">
         <v>62.2</v>
       </c>
@@ -2732,7 +1847,9 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
+      <c r="O24" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P24" s="1" t="n">
         <v>59</v>
       </c>
@@ -2793,7 +1910,9 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
+      <c r="O25" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P25" s="1" t="n">
         <v>64.2</v>
       </c>
@@ -2854,7 +1973,9 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
+      <c r="O26" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P26" s="1" t="n">
         <v>60.9</v>
       </c>
@@ -2915,7 +2036,9 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="O27" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P27" s="1" t="n">
         <v>61.1</v>
       </c>
@@ -2976,7 +2099,9 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="O28" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P28" s="1" t="n">
         <v>60.6</v>
       </c>
@@ -3037,7 +2162,9 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="O29" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P29" s="1" t="n">
         <v>55.1</v>
       </c>
@@ -3098,7 +2225,9 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="O30" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P30" s="1" t="n">
         <v>52.2</v>
       </c>
@@ -3159,7 +2288,9 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+      <c r="O31" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P31" s="1" t="n">
         <v>50.8</v>
       </c>
@@ -3220,7 +2351,9 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
+      <c r="O32" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P32" s="1" t="n">
         <v>51</v>
       </c>
@@ -3281,7 +2414,9 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
+      <c r="O33" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P33" s="1" t="n">
         <v>49.5</v>
       </c>
@@ -3342,7 +2477,9 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
+      <c r="O34" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P34" s="1" t="n">
         <v>50</v>
       </c>
@@ -3403,7 +2540,9 @@
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
+      <c r="O35" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P35" s="1" t="n">
         <v>51.2</v>
       </c>
@@ -3464,7 +2603,9 @@
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
+      <c r="O36" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P36" s="1" t="n">
         <v>53.8</v>
       </c>
@@ -3525,7 +2666,9 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
+      <c r="O37" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P37" s="1" t="n">
         <v>57.2</v>
       </c>
@@ -3588,7 +2731,9 @@
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
+      <c r="O38" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P38" s="1" t="n">
         <v>55.2</v>
       </c>
@@ -3651,7 +2796,9 @@
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
+      <c r="O39" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P39" s="1" t="n">
         <v>55.1</v>
       </c>
@@ -3714,7 +2861,9 @@
       </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="O40" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P40" s="1" t="n">
         <v>54.7</v>
       </c>
@@ -3777,7 +2926,9 @@
       </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
+      <c r="O41" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P41" s="1" t="n">
         <v>57.6</v>
       </c>
@@ -3840,7 +2991,9 @@
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
+      <c r="O42" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P42" s="1" t="n">
         <v>59.8</v>
       </c>
@@ -3903,7 +3056,9 @@
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
+      <c r="O43" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P43" s="1" t="n">
         <v>58.2</v>
       </c>
@@ -3966,7 +3121,9 @@
       </c>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
+      <c r="O44" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P44" s="1" t="n">
         <v>55.5</v>
       </c>
@@ -4029,7 +3186,9 @@
       </c>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
+      <c r="O45" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P45" s="1" t="n">
         <v>55.1</v>
       </c>
@@ -4092,7 +3251,9 @@
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
+      <c r="O46" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P46" s="1" t="n">
         <v>56.9</v>
       </c>
@@ -4155,7 +3316,9 @@
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
+      <c r="O47" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P47" s="1" t="n">
         <v>57.7</v>
       </c>
@@ -4218,7 +3381,9 @@
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
+      <c r="O48" s="8" t="n">
+        <v>8</v>
+      </c>
       <c r="P48" s="1" t="n">
         <v>57.5</v>
       </c>
@@ -4281,7 +3446,9 @@
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
+      <c r="O49" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P49" s="1" t="n">
         <v>54</v>
       </c>
@@ -4344,7 +3511,9 @@
       </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
+      <c r="O50" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P50" s="1" t="n">
         <v>57.1</v>
       </c>
@@ -4407,7 +3576,9 @@
       </c>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
+      <c r="O51" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P51" s="1" t="n">
         <v>57.9</v>
       </c>
@@ -4470,7 +3641,9 @@
       </c>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
+      <c r="O52" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P52" s="1" t="n">
         <v>60.2</v>
       </c>
@@ -4533,7 +3706,9 @@
       </c>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
+      <c r="O53" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P53" s="1" t="n">
         <v>59.2</v>
       </c>
@@ -4596,7 +3771,9 @@
       </c>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
+      <c r="O54" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P54" s="1" t="n">
         <v>58.7</v>
       </c>
@@ -4659,7 +3836,9 @@
       </c>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
+      <c r="O55" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P55" s="1" t="n">
         <v>60.1</v>
       </c>
@@ -4722,7 +3901,9 @@
       </c>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
+      <c r="O56" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P56" s="1" t="n">
         <v>62.9</v>
       </c>
@@ -4785,7 +3966,9 @@
       </c>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
+      <c r="O57" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P57" s="1" t="n">
         <v>63.3</v>
       </c>
@@ -4848,7 +4031,9 @@
       </c>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
+      <c r="O58" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P58" s="1" t="n">
         <v>63.3</v>
       </c>
@@ -4911,7 +4096,9 @@
       </c>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
+      <c r="O59" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P59" s="1" t="n">
         <v>60.7</v>
       </c>
@@ -4974,7 +4161,9 @@
       </c>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
+      <c r="O60" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P60" s="1" t="n">
         <v>61.8</v>
       </c>
@@ -5037,7 +4226,9 @@
       </c>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
+      <c r="O61" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P61" s="1" t="n">
         <v>62.4</v>
       </c>
@@ -5100,7 +4291,9 @@
       </c>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
+      <c r="O62" s="8" t="n">
+        <v>8</v>
+      </c>
       <c r="P62" s="1" t="n">
         <v>61</v>
       </c>
@@ -5163,7 +4356,9 @@
       </c>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
+      <c r="O63" s="8" t="n">
+        <v>15</v>
+      </c>
       <c r="P63" s="1" t="n">
         <v>62.1</v>
       </c>
@@ -5226,7 +4421,9 @@
       </c>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
+      <c r="O64" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P64" s="1" t="n">
         <v>64.9</v>
       </c>
@@ -5289,7 +4486,9 @@
       </c>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
+      <c r="O65" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P65" s="1" t="n">
         <v>62</v>
       </c>
@@ -5352,7 +4551,9 @@
       </c>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
+      <c r="O66" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P66" s="1" t="n">
         <v>61.3</v>
       </c>
@@ -5415,7 +4616,9 @@
       </c>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
+      <c r="O67" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P67" s="1" t="n">
         <v>58.7</v>
       </c>
@@ -5478,7 +4681,9 @@
       </c>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
+      <c r="O68" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P68" s="1" t="n">
         <v>58.1</v>
       </c>
@@ -5541,7 +4746,9 @@
       </c>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
+      <c r="O69" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P69" s="1" t="n">
         <v>58.1</v>
       </c>
@@ -5604,7 +4811,9 @@
       </c>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
+      <c r="O70" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P70" s="1" t="n">
         <v>61</v>
       </c>
@@ -5667,7 +4876,9 @@
       </c>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
+      <c r="O71" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P71" s="1" t="n">
         <v>58.6</v>
       </c>
@@ -5730,7 +4941,9 @@
       </c>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
+      <c r="O72" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P72" s="1" t="n">
         <v>59.4</v>
       </c>
@@ -5793,7 +5006,9 @@
       </c>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
+      <c r="O73" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P73" s="1" t="n">
         <v>62.8</v>
       </c>
@@ -5856,7 +5071,9 @@
       </c>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
+      <c r="O74" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P74" s="1" t="n">
         <v>65.8</v>
       </c>
@@ -5919,7 +5136,9 @@
       </c>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
+      <c r="O75" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P75" s="1" t="n">
         <v>65.5</v>
       </c>
@@ -5982,7 +5201,9 @@
       </c>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
+      <c r="O76" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P76" s="1" t="n">
         <v>65.7</v>
       </c>
@@ -6045,7 +5266,9 @@
       </c>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
+      <c r="O77" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P77" s="1" t="n">
         <v>64.2</v>
       </c>
@@ -6108,7 +5331,9 @@
       </c>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
+      <c r="O78" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P78" s="1" t="n">
         <v>57.7</v>
       </c>
@@ -6171,7 +5396,9 @@
       </c>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
+      <c r="O79" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P79" s="1" t="n">
         <v>59</v>
       </c>
@@ -6234,7 +5461,9 @@
       </c>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
+      <c r="O80" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P80" s="1" t="n">
         <v>60.3</v>
       </c>
@@ -6297,7 +5526,9 @@
       </c>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
+      <c r="O81" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P81" s="1" t="n">
         <v>58.5</v>
       </c>
@@ -6360,7 +5591,9 @@
       </c>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
+      <c r="O82" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P82" s="1" t="n">
         <v>58.7</v>
       </c>
@@ -6423,7 +5656,9 @@
       </c>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
+      <c r="O83" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P83" s="1" t="n">
         <v>57.2</v>
       </c>
@@ -6486,7 +5721,9 @@
       </c>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
+      <c r="O84" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P84" s="1" t="n">
         <v>53.7</v>
       </c>
@@ -6549,7 +5786,9 @@
       </c>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
+      <c r="O85" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P85" s="1" t="n">
         <v>52.4</v>
       </c>
@@ -6614,7 +5853,9 @@
         <v>89.4</v>
       </c>
       <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
+      <c r="O86" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P86" s="1" t="n">
         <v>49.1</v>
       </c>
@@ -6679,7 +5920,9 @@
         <v>88</v>
       </c>
       <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
+      <c r="O87" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P87" s="1" t="n">
         <v>47.6</v>
       </c>
@@ -6744,7 +5987,9 @@
         <v>87.1</v>
       </c>
       <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
+      <c r="O88" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P88" s="1" t="n">
         <v>45.3</v>
       </c>
@@ -6809,7 +6054,9 @@
         <v>87.5</v>
       </c>
       <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
+      <c r="O89" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P89" s="1" t="n">
         <v>42.8</v>
       </c>
@@ -6874,7 +6121,9 @@
         <v>86.4</v>
       </c>
       <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
+      <c r="O90" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P90" s="1" t="n">
         <v>44.5</v>
       </c>
@@ -6939,7 +6188,9 @@
         <v>86</v>
       </c>
       <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
+      <c r="O91" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P91" s="1" t="n">
         <v>46.8</v>
       </c>
@@ -7004,7 +6255,9 @@
         <v>85.4</v>
       </c>
       <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
+      <c r="O92" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P92" s="1" t="n">
         <v>49.5</v>
       </c>
@@ -7069,7 +6322,9 @@
         <v>86.6</v>
       </c>
       <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
+      <c r="O93" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P93" s="1" t="n">
         <v>52.2</v>
       </c>
@@ -7134,7 +6389,9 @@
         <v>86.1</v>
       </c>
       <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
+      <c r="O94" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P94" s="1" t="n">
         <v>54.9</v>
       </c>
@@ -7199,7 +6456,9 @@
         <v>86.4</v>
       </c>
       <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
+      <c r="O95" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P95" s="1" t="n">
         <v>54.1</v>
       </c>
@@ -7264,7 +6523,9 @@
         <v>87.3</v>
       </c>
       <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
+      <c r="O96" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P96" s="1" t="n">
         <v>54.2</v>
       </c>
@@ -7329,7 +6590,9 @@
         <v>87.8</v>
       </c>
       <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
+      <c r="O97" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P97" s="1" t="n">
         <v>55.6</v>
       </c>
@@ -7394,7 +6657,9 @@
         <v>87.4</v>
       </c>
       <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
+      <c r="O98" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P98" s="1" t="n">
         <v>56.6</v>
       </c>
@@ -7459,7 +6724,9 @@
         <v>87.3</v>
       </c>
       <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
+      <c r="O99" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P99" s="1" t="n">
         <v>55</v>
       </c>
@@ -7524,7 +6791,9 @@
         <v>87.3</v>
       </c>
       <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
+      <c r="O100" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P100" s="1" t="n">
         <v>53.8</v>
       </c>
@@ -7589,7 +6858,9 @@
         <v>87.1</v>
       </c>
       <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
+      <c r="O101" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P101" s="1" t="n">
         <v>58</v>
       </c>
@@ -7654,7 +6925,9 @@
         <v>87.7</v>
       </c>
       <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
+      <c r="O102" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P102" s="1" t="n">
         <v>55.3</v>
       </c>
@@ -7719,7 +6992,9 @@
         <v>87.7</v>
       </c>
       <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
+      <c r="O103" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P103" s="1" t="n">
         <v>53.5</v>
       </c>
@@ -7784,7 +7059,9 @@
         <v>87.2</v>
       </c>
       <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
+      <c r="O104" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P104" s="1" t="n">
         <v>54.1</v>
       </c>
@@ -7849,7 +7126,9 @@
         <v>87.1</v>
       </c>
       <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
+      <c r="O105" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P105" s="1" t="n">
         <v>52.7</v>
       </c>
@@ -7914,7 +7193,9 @@
         <v>87.1</v>
       </c>
       <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
+      <c r="O106" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P106" s="1" t="n">
         <v>51.8</v>
       </c>
@@ -7979,7 +7260,9 @@
         <v>86.9</v>
       </c>
       <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
+      <c r="O107" s="8" t="n">
+        <v>15</v>
+      </c>
       <c r="P107" s="1" t="n">
         <v>55.8</v>
       </c>
@@ -8044,7 +7327,9 @@
         <v>87.7</v>
       </c>
       <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
+      <c r="O108" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P108" s="1" t="n">
         <v>58.1</v>
       </c>
@@ -8109,7 +7394,9 @@
         <v>87.6</v>
       </c>
       <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
+      <c r="O109" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P109" s="1" t="n">
         <v>56.1</v>
       </c>
@@ -8174,7 +7461,9 @@
         <v>87.8</v>
       </c>
       <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
+      <c r="O110" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P110" s="1" t="n">
         <v>54.9</v>
       </c>
@@ -8239,7 +7528,9 @@
         <v>88.1</v>
       </c>
       <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
+      <c r="O111" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P111" s="1" t="n">
         <v>57</v>
       </c>
@@ -8304,7 +7595,9 @@
         <v>88.5</v>
       </c>
       <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
+      <c r="O112" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P112" s="1" t="n">
         <v>57.1</v>
       </c>
@@ -8369,7 +7662,9 @@
         <v>87.8</v>
       </c>
       <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
+      <c r="O113" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P113" s="1" t="n">
         <v>55.2</v>
       </c>
@@ -8434,7 +7729,9 @@
         <v>87.2</v>
       </c>
       <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
+      <c r="O114" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P114" s="1" t="n">
         <v>56.7</v>
       </c>
@@ -8499,7 +7796,9 @@
         <v>87.7</v>
       </c>
       <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
+      <c r="O115" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P115" s="1" t="n">
         <v>55.5</v>
       </c>
@@ -8564,7 +7863,9 @@
         <v>87.9</v>
       </c>
       <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
+      <c r="O116" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P116" s="1" t="n">
         <v>53.1</v>
       </c>
@@ -8629,7 +7930,9 @@
         <v>87.8</v>
       </c>
       <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
+      <c r="O117" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P117" s="1" t="n">
         <v>54.8</v>
       </c>
@@ -8694,7 +7997,9 @@
         <v>87.4</v>
       </c>
       <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
+      <c r="O118" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P118" s="1" t="n">
         <v>54.1</v>
       </c>
@@ -8759,7 +8064,9 @@
         <v>87.1</v>
       </c>
       <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
+      <c r="O119" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P119" s="1" t="n">
         <v>54.6</v>
       </c>
@@ -8824,7 +8131,9 @@
         <v>86</v>
       </c>
       <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
+      <c r="O120" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P120" s="1" t="n">
         <v>53.2</v>
       </c>
@@ -8889,7 +8198,9 @@
         <v>85.5</v>
       </c>
       <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
+      <c r="O121" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P121" s="1" t="n">
         <v>52</v>
       </c>
@@ -8954,7 +8265,9 @@
         <v>83.6</v>
       </c>
       <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
+      <c r="O122" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="P122" s="1" t="n">
         <v>48.7</v>
       </c>
@@ -9019,7 +8332,7 @@
         <v>83.3</v>
       </c>
       <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
+      <c r="O123" s="8"/>
       <c r="P123" s="1" t="n">
         <v>47.4</v>
       </c>
@@ -9084,7 +8397,9 @@
         <v>82.9</v>
       </c>
       <c r="N124" s="7"/>
-      <c r="O124" s="7"/>
+      <c r="O124" s="9" t="n">
+        <v>10</v>
+      </c>
       <c r="P124" s="1" t="n">
         <v>46.9</v>
       </c>
@@ -9149,7 +8464,7 @@
         <v>82.5</v>
       </c>
       <c r="N125" s="7"/>
-      <c r="O125" s="7"/>
+      <c r="O125" s="8"/>
       <c r="P125" s="1" t="n">
         <v>45</v>
       </c>
@@ -9214,7 +8529,7 @@
         <v>82.1</v>
       </c>
       <c r="N126" s="7"/>
-      <c r="O126" s="7"/>
+      <c r="O126" s="8"/>
       <c r="P126" s="1" t="n">
         <v>47.2</v>
       </c>
@@ -9279,7 +8594,7 @@
         <v>81.6</v>
       </c>
       <c r="N127" s="7"/>
-      <c r="O127" s="7"/>
+      <c r="O127" s="8"/>
       <c r="P127" s="1" t="n">
         <v>51.1</v>
       </c>
@@ -9344,7 +8659,7 @@
         <v>81.5</v>
       </c>
       <c r="N128" s="7"/>
-      <c r="O128" s="7"/>
+      <c r="O128" s="8"/>
       <c r="P128" s="1" t="n">
         <v>49.5</v>
       </c>
@@ -9409,7 +8724,7 @@
         <v>81.1</v>
       </c>
       <c r="N129" s="7"/>
-      <c r="O129" s="7"/>
+      <c r="O129" s="8"/>
       <c r="P129" s="1" t="n">
         <v>47.3</v>
       </c>
@@ -9474,7 +8789,7 @@
         <v>80.3</v>
       </c>
       <c r="N130" s="7"/>
-      <c r="O130" s="7"/>
+      <c r="O130" s="8"/>
       <c r="P130" s="1" t="n">
         <v>44.1</v>
       </c>
@@ -9539,7 +8854,7 @@
         <v>78.5</v>
       </c>
       <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
+      <c r="O131" s="8"/>
       <c r="P131" s="1" t="n">
         <v>42.4</v>
       </c>
@@ -9604,7 +8919,7 @@
         <v>77.8</v>
       </c>
       <c r="N132" s="7"/>
-      <c r="O132" s="7"/>
+      <c r="O132" s="8"/>
       <c r="P132" s="1" t="n">
         <v>39.7</v>
       </c>
@@ -9669,7 +8984,7 @@
         <v>79.3</v>
       </c>
       <c r="N133" s="7"/>
-      <c r="O133" s="7"/>
+      <c r="O133" s="8"/>
       <c r="P133" s="1" t="n">
         <v>45.4</v>
       </c>
@@ -9734,7 +9049,7 @@
         <v>79.7</v>
       </c>
       <c r="N134" s="7"/>
-      <c r="O134" s="7"/>
+      <c r="O134" s="8"/>
       <c r="P134" s="1" t="n">
         <v>47.9</v>
       </c>
@@ -9799,7 +9114,7 @@
         <v>79.4</v>
       </c>
       <c r="N135" s="7"/>
-      <c r="O135" s="7"/>
+      <c r="O135" s="8"/>
       <c r="P135" s="1" t="n">
         <v>54.8</v>
       </c>
@@ -9864,7 +9179,7 @@
         <v>79.1</v>
       </c>
       <c r="N136" s="7"/>
-      <c r="O136" s="7"/>
+      <c r="O136" s="8"/>
       <c r="P136" s="1" t="n">
         <v>51.2</v>
       </c>
@@ -9929,7 +9244,7 @@
         <v>79.3</v>
       </c>
       <c r="N137" s="7"/>
-      <c r="O137" s="7"/>
+      <c r="O137" s="8"/>
       <c r="P137" s="1" t="n">
         <v>54.5</v>
       </c>
@@ -9994,7 +9309,7 @@
         <v>79.5</v>
       </c>
       <c r="N138" s="7"/>
-      <c r="O138" s="7"/>
+      <c r="O138" s="8"/>
       <c r="P138" s="1" t="n">
         <v>54.2</v>
       </c>
@@ -10059,7 +9374,7 @@
         <v>79.6</v>
       </c>
       <c r="N139" s="7"/>
-      <c r="O139" s="7"/>
+      <c r="O139" s="8"/>
       <c r="P139" s="1" t="n">
         <v>53.8</v>
       </c>
@@ -10124,7 +9439,7 @@
         <v>79.2</v>
       </c>
       <c r="N140" s="7"/>
-      <c r="O140" s="7"/>
+      <c r="O140" s="8"/>
       <c r="P140" s="1" t="n">
         <v>54.4</v>
       </c>
@@ -10189,7 +9504,7 @@
         <v>78.5</v>
       </c>
       <c r="N141" s="7"/>
-      <c r="O141" s="7"/>
+      <c r="O141" s="8"/>
       <c r="P141" s="1" t="n">
         <v>53.6</v>
       </c>
@@ -10254,7 +9569,7 @@
         <v>79.6</v>
       </c>
       <c r="N142" s="7"/>
-      <c r="O142" s="7"/>
+      <c r="O142" s="8"/>
       <c r="P142" s="1" t="n">
         <v>55.1</v>
       </c>
@@ -10319,7 +9634,7 @@
         <v>80</v>
       </c>
       <c r="N143" s="7"/>
-      <c r="O143" s="7"/>
+      <c r="O143" s="8"/>
       <c r="P143" s="1" t="n">
         <v>55</v>
       </c>
@@ -10384,7 +9699,7 @@
         <v>80.2</v>
       </c>
       <c r="N144" s="7"/>
-      <c r="O144" s="7"/>
+      <c r="O144" s="8"/>
       <c r="P144" s="1" t="n">
         <v>52.3</v>
       </c>
@@ -10449,7 +9764,7 @@
         <v>80.9</v>
       </c>
       <c r="N145" s="7"/>
-      <c r="O145" s="7"/>
+      <c r="O145" s="8"/>
       <c r="P145" s="1" t="n">
         <v>57.6</v>
       </c>
@@ -10514,7 +9829,7 @@
         <v>82.6</v>
       </c>
       <c r="N146" s="7"/>
-      <c r="O146" s="7"/>
+      <c r="O146" s="8"/>
       <c r="P146" s="1" t="n">
         <v>59.6</v>
       </c>
@@ -10579,7 +9894,7 @@
         <v>83.2</v>
       </c>
       <c r="N147" s="7"/>
-      <c r="O147" s="7"/>
+      <c r="O147" s="8"/>
       <c r="P147" s="1" t="n">
         <v>60.6</v>
       </c>
@@ -10644,7 +9959,9 @@
         <v>83.6</v>
       </c>
       <c r="N148" s="7"/>
-      <c r="O148" s="7"/>
+      <c r="O148" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P148" s="1" t="n">
         <v>59.8</v>
       </c>
@@ -10709,7 +10026,9 @@
         <v>84.3</v>
       </c>
       <c r="N149" s="7"/>
-      <c r="O149" s="7"/>
+      <c r="O149" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P149" s="1" t="n">
         <v>59.3</v>
       </c>
@@ -10774,7 +10093,9 @@
         <v>84</v>
       </c>
       <c r="N150" s="7"/>
-      <c r="O150" s="7"/>
+      <c r="O150" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P150" s="1" t="n">
         <v>61.4</v>
       </c>
@@ -10839,7 +10160,9 @@
         <v>84.1</v>
       </c>
       <c r="N151" s="7"/>
-      <c r="O151" s="7"/>
+      <c r="O151" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P151" s="1" t="n">
         <v>58.6</v>
       </c>
@@ -10904,7 +10227,9 @@
         <v>83.8</v>
       </c>
       <c r="N152" s="7"/>
-      <c r="O152" s="7"/>
+      <c r="O152" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P152" s="1" t="n">
         <v>60.1</v>
       </c>
@@ -10969,7 +10294,9 @@
         <v>84.7</v>
       </c>
       <c r="N153" s="7"/>
-      <c r="O153" s="7"/>
+      <c r="O153" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P153" s="1" t="n">
         <v>61.7</v>
       </c>
@@ -11034,7 +10361,9 @@
         <v>85.1</v>
       </c>
       <c r="N154" s="7"/>
-      <c r="O154" s="7"/>
+      <c r="O154" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P154" s="1" t="n">
         <v>65.1</v>
       </c>
@@ -11099,7 +10428,9 @@
         <v>86</v>
       </c>
       <c r="N155" s="7"/>
-      <c r="O155" s="7"/>
+      <c r="O155" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P155" s="1" t="n">
         <v>67</v>
       </c>
@@ -11164,7 +10495,9 @@
         <v>86.7</v>
       </c>
       <c r="N156" s="7"/>
-      <c r="O156" s="7"/>
+      <c r="O156" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P156" s="1" t="n">
         <v>69.9</v>
       </c>
@@ -11229,7 +10562,9 @@
         <v>87.5</v>
       </c>
       <c r="N157" s="7"/>
-      <c r="O157" s="7"/>
+      <c r="O157" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P157" s="1" t="n">
         <v>70.5</v>
       </c>
@@ -11296,7 +10631,9 @@
       <c r="N158" s="1" t="n">
         <v>100.5463</v>
       </c>
-      <c r="O158" s="7"/>
+      <c r="O158" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P158" s="1" t="n">
         <v>72.1</v>
       </c>
@@ -11363,7 +10700,9 @@
       <c r="N159" s="1" t="n">
         <v>100.5341</v>
       </c>
-      <c r="O159" s="7"/>
+      <c r="O159" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P159" s="1" t="n">
         <v>69.6</v>
       </c>
@@ -11430,7 +10769,9 @@
       <c r="N160" s="1" t="n">
         <v>100.4344</v>
       </c>
-      <c r="O160" s="7"/>
+      <c r="O160" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P160" s="1" t="n">
         <v>69.6</v>
       </c>
@@ -11497,7 +10838,9 @@
       <c r="N161" s="1" t="n">
         <v>100.2673</v>
       </c>
-      <c r="O161" s="7"/>
+      <c r="O161" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P161" s="1" t="n">
         <v>67.7</v>
       </c>
@@ -11564,7 +10907,9 @@
       <c r="N162" s="1" t="n">
         <v>100.1687</v>
       </c>
-      <c r="O162" s="7"/>
+      <c r="O162" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P162" s="1" t="n">
         <v>64.8</v>
       </c>
@@ -11631,7 +10976,9 @@
       <c r="N163" s="1" t="n">
         <v>100.1917</v>
       </c>
-      <c r="O163" s="7"/>
+      <c r="O163" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P163" s="1" t="n">
         <v>65</v>
       </c>
@@ -11698,7 +11045,9 @@
       <c r="N164" s="1" t="n">
         <v>100.3144</v>
       </c>
-      <c r="O164" s="7"/>
+      <c r="O164" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P164" s="1" t="n">
         <v>57.8</v>
       </c>
@@ -11765,7 +11114,9 @@
       <c r="N165" s="1" t="n">
         <v>100.4166</v>
       </c>
-      <c r="O165" s="7"/>
+      <c r="O165" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P165" s="1" t="n">
         <v>62.7</v>
       </c>
@@ -11832,7 +11183,9 @@
       <c r="N166" s="1" t="n">
         <v>100.5225</v>
       </c>
-      <c r="O166" s="7"/>
+      <c r="O166" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P166" s="1" t="n">
         <v>63.5</v>
       </c>
@@ -11899,7 +11252,9 @@
       <c r="N167" s="1" t="n">
         <v>100.6071</v>
       </c>
-      <c r="O167" s="7"/>
+      <c r="O167" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P167" s="1" t="n">
         <v>66.2</v>
       </c>
@@ -11966,7 +11321,9 @@
       <c r="N168" s="1" t="n">
         <v>100.4903</v>
       </c>
-      <c r="O168" s="7"/>
+      <c r="O168" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P168" s="1" t="n">
         <v>68.1</v>
       </c>
@@ -12033,7 +11390,9 @@
       <c r="N169" s="1" t="n">
         <v>100.1182</v>
       </c>
-      <c r="O169" s="7"/>
+      <c r="O169" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P169" s="1" t="n">
         <v>63.6</v>
       </c>
@@ -12100,7 +11459,9 @@
       <c r="N170" s="1" t="n">
         <v>99.58759</v>
       </c>
-      <c r="O170" s="7"/>
+      <c r="O170" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P170" s="1" t="n">
         <v>62.1</v>
       </c>
@@ -12167,7 +11528,9 @@
       <c r="N171" s="1" t="n">
         <v>99.33621</v>
       </c>
-      <c r="O171" s="7"/>
+      <c r="O171" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P171" s="1" t="n">
         <v>58.6</v>
       </c>
@@ -12234,7 +11597,9 @@
       <c r="N172" s="1" t="n">
         <v>99.3941</v>
       </c>
-      <c r="O172" s="7"/>
+      <c r="O172" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P172" s="1" t="n">
         <v>61.8</v>
       </c>
@@ -12301,7 +11666,9 @@
       <c r="N173" s="1" t="n">
         <v>99.63515</v>
       </c>
-      <c r="O173" s="7"/>
+      <c r="O173" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P173" s="1" t="n">
         <v>59.9</v>
       </c>
@@ -12368,7 +11735,9 @@
       <c r="N174" s="1" t="n">
         <v>99.81049</v>
       </c>
-      <c r="O174" s="7"/>
+      <c r="O174" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P174" s="1" t="n">
         <v>55.7</v>
       </c>
@@ -12435,7 +11804,9 @@
       <c r="N175" s="1" t="n">
         <v>99.85555</v>
       </c>
-      <c r="O175" s="7"/>
+      <c r="O175" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P175" s="1" t="n">
         <v>54.7</v>
       </c>
@@ -12502,7 +11873,9 @@
       <c r="N176" s="1" t="n">
         <v>99.80602</v>
       </c>
-      <c r="O176" s="7"/>
+      <c r="O176" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P176" s="1" t="n">
         <v>54.8</v>
       </c>
@@ -12569,7 +11942,9 @@
       <c r="N177" s="1" t="n">
         <v>99.75279</v>
       </c>
-      <c r="O177" s="7"/>
+      <c r="O177" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P177" s="1" t="n">
         <v>52.9</v>
       </c>
@@ -12636,7 +12011,9 @@
       <c r="N178" s="1" t="n">
         <v>99.70885</v>
       </c>
-      <c r="O178" s="7"/>
+      <c r="O178" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P178" s="1" t="n">
         <v>46.2</v>
       </c>
@@ -12703,7 +12080,9 @@
       <c r="N179" s="1" t="n">
         <v>99.66247</v>
       </c>
-      <c r="O179" s="7"/>
+      <c r="O179" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P179" s="1" t="n">
         <v>42.7</v>
       </c>
@@ -12770,7 +12149,9 @@
       <c r="N180" s="1" t="n">
         <v>99.62112</v>
       </c>
-      <c r="O180" s="7"/>
+      <c r="O180" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P180" s="1" t="n">
         <v>37.9</v>
       </c>
@@ -12837,7 +12218,9 @@
       <c r="N181" s="1" t="n">
         <v>99.56657</v>
       </c>
-      <c r="O181" s="7"/>
+      <c r="O181" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P181" s="1" t="n">
         <v>30.9</v>
       </c>
@@ -12904,7 +12287,9 @@
       <c r="N182" s="1" t="n">
         <v>99.4962</v>
       </c>
-      <c r="O182" s="7"/>
+      <c r="O182" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P182" s="1" t="n">
         <v>30.7</v>
       </c>
@@ -12971,7 +12356,9 @@
       <c r="N183" s="1" t="n">
         <v>99.47757</v>
       </c>
-      <c r="O183" s="7"/>
+      <c r="O183" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P183" s="1" t="n">
         <v>34.4</v>
       </c>
@@ -13038,7 +12425,9 @@
       <c r="N184" s="1" t="n">
         <v>99.44473</v>
       </c>
-      <c r="O184" s="7"/>
+      <c r="O184" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P184" s="1" t="n">
         <v>31.6</v>
       </c>
@@ -13105,7 +12494,9 @@
       <c r="N185" s="1" t="n">
         <v>99.39954</v>
       </c>
-      <c r="O185" s="7"/>
+      <c r="O185" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P185" s="1" t="n">
         <v>37.5</v>
       </c>
@@ -13172,7 +12563,9 @@
       <c r="N186" s="1" t="n">
         <v>99.35322</v>
       </c>
-      <c r="O186" s="7"/>
+      <c r="O186" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P186" s="1" t="n">
         <v>41.2</v>
       </c>
@@ -13239,7 +12632,9 @@
       <c r="N187" s="1" t="n">
         <v>99.28013</v>
       </c>
-      <c r="O187" s="7"/>
+      <c r="O187" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P187" s="1" t="n">
         <v>45.1</v>
       </c>
@@ -13306,7 +12701,9 @@
       <c r="N188" s="1" t="n">
         <v>99.16414</v>
       </c>
-      <c r="O188" s="7"/>
+      <c r="O188" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P188" s="1" t="n">
         <v>47.2</v>
       </c>
@@ -13373,7 +12770,9 @@
       <c r="N189" s="1" t="n">
         <v>99.07168</v>
       </c>
-      <c r="O189" s="7"/>
+      <c r="O189" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P189" s="1" t="n">
         <v>51.4</v>
       </c>
@@ -13440,7 +12839,9 @@
       <c r="N190" s="1" t="n">
         <v>98.99373</v>
       </c>
-      <c r="O190" s="7"/>
+      <c r="O190" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P190" s="1" t="n">
         <v>54.4</v>
       </c>
@@ -13507,7 +12908,9 @@
       <c r="N191" s="1" t="n">
         <v>98.93826</v>
       </c>
-      <c r="O191" s="7"/>
+      <c r="O191" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P191" s="1" t="n">
         <v>55.5</v>
       </c>
@@ -13574,7 +12977,9 @@
       <c r="N192" s="1" t="n">
         <v>99.0082</v>
       </c>
-      <c r="O192" s="7"/>
+      <c r="O192" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P192" s="1" t="n">
         <v>54.5</v>
       </c>
@@ -13641,7 +13046,9 @@
       <c r="N193" s="1" t="n">
         <v>99.27421</v>
       </c>
-      <c r="O193" s="7"/>
+      <c r="O193" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P193" s="1" t="n">
         <v>54.9</v>
       </c>
@@ -13708,7 +13115,9 @@
       <c r="N194" s="1" t="n">
         <v>99.7047</v>
       </c>
-      <c r="O194" s="7"/>
+      <c r="O194" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P194" s="1" t="n">
         <v>58.8</v>
       </c>
@@ -13775,7 +13184,9 @@
       <c r="N195" s="1" t="n">
         <v>99.99125</v>
       </c>
-      <c r="O195" s="7"/>
+      <c r="O195" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P195" s="1" t="n">
         <v>61.5</v>
       </c>
@@ -13842,7 +13253,9 @@
       <c r="N196" s="1" t="n">
         <v>100.0315</v>
       </c>
-      <c r="O196" s="7"/>
+      <c r="O196" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P196" s="1" t="n">
         <v>58.4</v>
       </c>
@@ -13909,7 +13322,9 @@
       <c r="N197" s="1" t="n">
         <v>99.91652</v>
       </c>
-      <c r="O197" s="7"/>
+      <c r="O197" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P197" s="1" t="n">
         <v>60.6</v>
       </c>
@@ -13976,7 +13391,9 @@
       <c r="N198" s="1" t="n">
         <v>99.7996</v>
       </c>
-      <c r="O198" s="7"/>
+      <c r="O198" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P198" s="1" t="n">
         <v>58.8</v>
       </c>
@@ -14043,7 +13460,9 @@
       <c r="N199" s="1" t="n">
         <v>99.73679</v>
       </c>
-      <c r="O199" s="7"/>
+      <c r="O199" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P199" s="1" t="n">
         <v>58.2</v>
       </c>
@@ -14110,7 +13529,9 @@
       <c r="N200" s="1" t="n">
         <v>99.71265</v>
       </c>
-      <c r="O200" s="7"/>
+      <c r="O200" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P200" s="1" t="n">
         <v>55.9</v>
       </c>
@@ -14177,7 +13598,9 @@
       <c r="N201" s="1" t="n">
         <v>99.70307</v>
       </c>
-      <c r="O201" s="7"/>
+      <c r="O201" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P201" s="1" t="n">
         <v>54.5</v>
       </c>
@@ -14244,7 +13667,9 @@
       <c r="N202" s="1" t="n">
         <v>99.69934</v>
       </c>
-      <c r="O202" s="7"/>
+      <c r="O202" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P202" s="1" t="n">
         <v>53.6</v>
       </c>
@@ -14311,7 +13736,9 @@
       <c r="N203" s="1" t="n">
         <v>99.71777</v>
       </c>
-      <c r="O203" s="7"/>
+      <c r="O203" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P203" s="1" t="n">
         <v>53.5</v>
       </c>
@@ -14378,7 +13805,9 @@
       <c r="N204" s="1" t="n">
         <v>99.80343</v>
       </c>
-      <c r="O204" s="7"/>
+      <c r="O204" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P204" s="1" t="n">
         <v>51.7</v>
       </c>
@@ -14445,7 +13874,9 @@
       <c r="N205" s="1" t="n">
         <v>100.0117</v>
       </c>
-      <c r="O205" s="7"/>
+      <c r="O205" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P205" s="1" t="n">
         <v>56.6</v>
       </c>
@@ -14512,7 +13943,9 @@
       <c r="N206" s="1" t="n">
         <v>100.3226</v>
       </c>
-      <c r="O206" s="7"/>
+      <c r="O206" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P206" s="1" t="n">
         <v>54.8</v>
       </c>
@@ -14579,7 +14012,9 @@
       <c r="N207" s="1" t="n">
         <v>100.5238</v>
       </c>
-      <c r="O207" s="7"/>
+      <c r="O207" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P207" s="1" t="n">
         <v>55</v>
       </c>
@@ -14646,7 +14081,9 @@
       <c r="N208" s="1" t="n">
         <v>100.5395</v>
       </c>
-      <c r="O208" s="7"/>
+      <c r="O208" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P208" s="1" t="n">
         <v>58.4</v>
       </c>
@@ -14713,7 +14150,9 @@
       <c r="N209" s="1" t="n">
         <v>100.4114</v>
       </c>
-      <c r="O209" s="7"/>
+      <c r="O209" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P209" s="1" t="n">
         <v>56.9</v>
       </c>
@@ -14780,7 +14219,9 @@
       <c r="N210" s="1" t="n">
         <v>100.2832</v>
       </c>
-      <c r="O210" s="7"/>
+      <c r="O210" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P210" s="1" t="n">
         <v>59.7</v>
       </c>
@@ -14847,7 +14288,9 @@
       <c r="N211" s="1" t="n">
         <v>100.1635</v>
       </c>
-      <c r="O211" s="7"/>
+      <c r="O211" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P211" s="1" t="n">
         <v>56.8</v>
       </c>
@@ -14914,7 +14357,9 @@
       <c r="N212" s="1" t="n">
         <v>100.0539</v>
       </c>
-      <c r="O212" s="7"/>
+      <c r="O212" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P212" s="1" t="n">
         <v>57.7</v>
       </c>
@@ -14981,7 +14426,9 @@
       <c r="N213" s="1" t="n">
         <v>99.97717</v>
       </c>
-      <c r="O213" s="7"/>
+      <c r="O213" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P213" s="1" t="n">
         <v>54.9</v>
       </c>
@@ -15048,7 +14495,9 @@
       <c r="N214" s="1" t="n">
         <v>99.90453</v>
       </c>
-      <c r="O214" s="7"/>
+      <c r="O214" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P214" s="1" t="n">
         <v>53.9</v>
       </c>
@@ -15115,7 +14564,9 @@
       <c r="N215" s="1" t="n">
         <v>99.83202</v>
       </c>
-      <c r="O215" s="7"/>
+      <c r="O215" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P215" s="1" t="n">
         <v>55.4</v>
       </c>
@@ -15182,7 +14633,9 @@
       <c r="N216" s="1" t="n">
         <v>99.85331</v>
       </c>
-      <c r="O216" s="7"/>
+      <c r="O216" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P216" s="1" t="n">
         <v>56.1</v>
       </c>
@@ -15249,7 +14702,9 @@
       <c r="N217" s="1" t="n">
         <v>100.0494</v>
       </c>
-      <c r="O217" s="7"/>
+      <c r="O217" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P217" s="1" t="n">
         <v>59.8</v>
       </c>
@@ -15316,7 +14771,9 @@
       <c r="N218" s="1" t="n">
         <v>100.3763</v>
       </c>
-      <c r="O218" s="7"/>
+      <c r="O218" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P218" s="1" t="n">
         <v>57.4</v>
       </c>
@@ -15383,7 +14840,9 @@
       <c r="N219" s="1" t="n">
         <v>100.5596</v>
       </c>
-      <c r="O219" s="7"/>
+      <c r="O219" s="8" t="n">
+        <v>15</v>
+      </c>
       <c r="P219" s="1" t="n">
         <v>55.9</v>
       </c>
@@ -15450,7 +14909,9 @@
       <c r="N220" s="1" t="n">
         <v>100.4992</v>
       </c>
-      <c r="O220" s="7"/>
+      <c r="O220" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P220" s="1" t="n">
         <v>55</v>
       </c>
@@ -15517,7 +14978,9 @@
       <c r="N221" s="1" t="n">
         <v>100.268</v>
       </c>
-      <c r="O221" s="7"/>
+      <c r="O221" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P221" s="1" t="n">
         <v>57.7</v>
       </c>
@@ -15584,7 +15047,9 @@
       <c r="N222" s="1" t="n">
         <v>100.0816</v>
       </c>
-      <c r="O222" s="7"/>
+      <c r="O222" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P222" s="1" t="n">
         <v>60.2</v>
       </c>
@@ -15651,7 +15116,9 @@
       <c r="N223" s="1" t="n">
         <v>99.98061</v>
       </c>
-      <c r="O223" s="7"/>
+      <c r="O223" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P223" s="1" t="n">
         <v>60.5</v>
       </c>
@@ -15718,7 +15185,9 @@
       <c r="N224" s="1" t="n">
         <v>99.92641</v>
       </c>
-      <c r="O224" s="7"/>
+      <c r="O224" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P224" s="1" t="n">
         <v>62.2</v>
       </c>
@@ -15785,7 +15254,9 @@
       <c r="N225" s="1" t="n">
         <v>99.90185</v>
       </c>
-      <c r="O225" s="7"/>
+      <c r="O225" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P225" s="1" t="n">
         <v>60.3</v>
       </c>
@@ -15852,7 +15323,9 @@
       <c r="N226" s="1" t="n">
         <v>99.87408</v>
       </c>
-      <c r="O226" s="7"/>
+      <c r="O226" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P226" s="1" t="n">
         <v>60.5</v>
       </c>
@@ -15919,7 +15392,9 @@
       <c r="N227" s="1" t="n">
         <v>99.81921</v>
       </c>
-      <c r="O227" s="7"/>
+      <c r="O227" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P227" s="1" t="n">
         <v>60.1</v>
       </c>
@@ -15986,7 +15461,9 @@
       <c r="N228" s="1" t="n">
         <v>99.75004</v>
       </c>
-      <c r="O228" s="7"/>
+      <c r="O228" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P228" s="1" t="n">
         <v>61.3</v>
       </c>
@@ -16053,7 +15530,9 @@
       <c r="N229" s="1" t="n">
         <v>99.67957</v>
       </c>
-      <c r="O229" s="7"/>
+      <c r="O229" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P229" s="1" t="n">
         <v>59.4</v>
       </c>
@@ -16120,7 +15599,9 @@
       <c r="N230" s="1" t="n">
         <v>99.59886</v>
       </c>
-      <c r="O230" s="7"/>
+      <c r="O230" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P230" s="1" t="n">
         <v>58.5</v>
       </c>
@@ -16187,7 +15668,9 @@
       <c r="N231" s="1" t="n">
         <v>99.54746</v>
       </c>
-      <c r="O231" s="7"/>
+      <c r="O231" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P231" s="1" t="n">
         <v>58.2</v>
       </c>
@@ -16254,7 +15737,9 @@
       <c r="N232" s="1" t="n">
         <v>99.51147</v>
       </c>
-      <c r="O232" s="7"/>
+      <c r="O232" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P232" s="1" t="n">
         <v>57.7</v>
       </c>
@@ -16321,7 +15806,9 @@
       <c r="N233" s="1" t="n">
         <v>99.47491</v>
       </c>
-      <c r="O233" s="7"/>
+      <c r="O233" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P233" s="1" t="n">
         <v>56.2</v>
       </c>
@@ -16388,7 +15875,9 @@
       <c r="N234" s="1" t="n">
         <v>99.45574</v>
       </c>
-      <c r="O234" s="7"/>
+      <c r="O234" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P234" s="1" t="n">
         <v>54.4</v>
       </c>
@@ -16455,7 +15944,9 @@
       <c r="N235" s="1" t="n">
         <v>99.45108</v>
       </c>
-      <c r="O235" s="7"/>
+      <c r="O235" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P235" s="1" t="n">
         <v>52.7</v>
       </c>
@@ -16522,7 +16013,9 @@
       <c r="N236" s="1" t="n">
         <v>99.45631</v>
       </c>
-      <c r="O236" s="7"/>
+      <c r="O236" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P236" s="1" t="n">
         <v>51.3</v>
       </c>
@@ -16589,7 +16082,9 @@
       <c r="N237" s="1" t="n">
         <v>99.46983</v>
       </c>
-      <c r="O237" s="7"/>
+      <c r="O237" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P237" s="1" t="n">
         <v>49.5</v>
       </c>
@@ -16656,7 +16151,9 @@
       <c r="N238" s="1" t="n">
         <v>99.48775</v>
       </c>
-      <c r="O238" s="7"/>
+      <c r="O238" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P238" s="1" t="n">
         <v>49.6</v>
       </c>
@@ -16723,7 +16220,9 @@
       <c r="N239" s="1" t="n">
         <v>99.49041</v>
       </c>
-      <c r="O239" s="7"/>
+      <c r="O239" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P239" s="1" t="n">
         <v>49</v>
       </c>
@@ -16790,7 +16289,9 @@
       <c r="N240" s="1" t="n">
         <v>99.42441</v>
       </c>
-      <c r="O240" s="7"/>
+      <c r="O240" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P240" s="1" t="n">
         <v>48</v>
       </c>
@@ -16857,7 +16358,9 @@
       <c r="N241" s="1" t="n">
         <v>99.20002</v>
       </c>
-      <c r="O241" s="7"/>
+      <c r="O241" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P241" s="1" t="n">
         <v>44.8</v>
       </c>
@@ -16924,7 +16427,9 @@
       <c r="N242" s="1" t="n">
         <v>98.8485</v>
       </c>
-      <c r="O242" s="7"/>
+      <c r="O242" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P242" s="1" t="n">
         <v>46.2</v>
       </c>
@@ -16991,7 +16496,9 @@
       <c r="N243" s="1" t="n">
         <v>98.5638</v>
       </c>
-      <c r="O243" s="7"/>
+      <c r="O243" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P243" s="1" t="n">
         <v>50.2</v>
       </c>
@@ -17058,7 +16565,9 @@
       <c r="N244" s="1" t="n">
         <v>98.3233</v>
       </c>
-      <c r="O244" s="7"/>
+      <c r="O244" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P244" s="1" t="n">
         <v>43.6</v>
       </c>
@@ -17125,7 +16634,9 @@
       <c r="N245" s="1" t="n">
         <v>98.08121</v>
       </c>
-      <c r="O245" s="7"/>
+      <c r="O245" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P245" s="1" t="n">
         <v>37.4</v>
       </c>
@@ -17192,7 +16703,9 @@
       <c r="N246" s="1" t="n">
         <v>97.91767</v>
       </c>
-      <c r="O246" s="7"/>
+      <c r="O246" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="P246" s="1" t="n">
         <v>29.4</v>
       </c>
@@ -17259,7 +16772,9 @@
       <c r="N247" s="1" t="n">
         <v>97.82419</v>
       </c>
-      <c r="O247" s="7"/>
+      <c r="O247" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P247" s="1" t="n">
         <v>30.3</v>
       </c>
@@ -17326,7 +16841,9 @@
       <c r="N248" s="1" t="n">
         <v>97.77576</v>
       </c>
-      <c r="O248" s="7"/>
+      <c r="O248" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P248" s="1" t="n">
         <v>35</v>
       </c>
@@ -17393,7 +16910,9 @@
       <c r="N249" s="1" t="n">
         <v>97.73311</v>
       </c>
-      <c r="O249" s="7"/>
+      <c r="O249" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P249" s="1" t="n">
         <v>45.5</v>
       </c>
@@ -17460,7 +16979,9 @@
       <c r="N250" s="1" t="n">
         <v>97.69099</v>
       </c>
-      <c r="O250" s="7"/>
+      <c r="O250" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P250" s="1" t="n">
         <v>50.1</v>
       </c>
@@ -17527,7 +17048,9 @@
       <c r="N251" s="1" t="n">
         <v>97.62962</v>
       </c>
-      <c r="O251" s="7"/>
+      <c r="O251" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P251" s="1" t="n">
         <v>55.5</v>
       </c>
@@ -17594,7 +17117,9 @@
       <c r="N252" s="1" t="n">
         <v>97.55669</v>
       </c>
-      <c r="O252" s="7"/>
+      <c r="O252" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P252" s="1" t="n">
         <v>58.2</v>
       </c>
@@ -17661,7 +17186,9 @@
       <c r="N253" s="1" t="n">
         <v>97.47746</v>
       </c>
-      <c r="O253" s="7"/>
+      <c r="O253" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P253" s="1" t="n">
         <v>53</v>
       </c>
@@ -17728,7 +17255,9 @@
       <c r="N254" s="1" t="n">
         <v>97.37635</v>
       </c>
-      <c r="O254" s="7"/>
+      <c r="O254" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P254" s="1" t="n">
         <v>49.2</v>
       </c>
@@ -17795,7 +17324,9 @@
       <c r="N255" s="1" t="n">
         <v>97.2961</v>
       </c>
-      <c r="O255" s="7"/>
+      <c r="O255" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P255" s="1" t="n">
         <v>48.8</v>
       </c>
@@ -17862,7 +17393,9 @@
       <c r="N256" s="1" t="n">
         <v>97.25629</v>
       </c>
-      <c r="O256" s="7"/>
+      <c r="O256" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P256" s="1" t="n">
         <v>49.6</v>
       </c>
@@ -17929,7 +17462,9 @@
       <c r="N257" s="1" t="n">
         <v>97.24213</v>
       </c>
-      <c r="O257" s="7"/>
+      <c r="O257" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P257" s="1" t="n">
         <v>51.6</v>
       </c>
@@ -17996,7 +17531,9 @@
       <c r="N258" s="1" t="n">
         <v>97.24438</v>
       </c>
-      <c r="O258" s="7"/>
+      <c r="O258" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P258" s="1" t="n">
         <v>53.5</v>
       </c>
@@ -18063,7 +17600,9 @@
       <c r="N259" s="1" t="n">
         <v>97.27343</v>
       </c>
-      <c r="O259" s="7"/>
+      <c r="O259" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P259" s="1" t="n">
         <v>50.7</v>
       </c>
@@ -18130,7 +17669,9 @@
       <c r="N260" s="1" t="n">
         <v>97.35712</v>
       </c>
-      <c r="O260" s="7"/>
+      <c r="O260" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P260" s="1" t="n">
         <v>46.7</v>
       </c>
@@ -18197,7 +17738,9 @@
       <c r="N261" s="1" t="n">
         <v>97.4203</v>
       </c>
-      <c r="O261" s="7"/>
+      <c r="O261" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P261" s="1" t="n">
         <v>48.3</v>
       </c>
@@ -18264,7 +17807,9 @@
       <c r="N262" s="1" t="n">
         <v>97.47515</v>
       </c>
-      <c r="O262" s="7"/>
+      <c r="O262" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P262" s="1" t="n">
         <v>42.5</v>
       </c>
@@ -18331,7 +17876,9 @@
       <c r="N263" s="1" t="n">
         <v>97.55809</v>
       </c>
-      <c r="O263" s="7"/>
+      <c r="O263" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P263" s="1" t="n">
         <v>40</v>
       </c>
@@ -18398,7 +17945,9 @@
       <c r="N264" s="1" t="n">
         <v>97.58349</v>
       </c>
-      <c r="O264" s="7"/>
+      <c r="O264" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P264" s="1" t="n">
         <v>36.1</v>
       </c>
@@ -18465,7 +18014,9 @@
       <c r="N265" s="1" t="n">
         <v>97.5348</v>
       </c>
-      <c r="O265" s="7"/>
+      <c r="O265" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P265" s="1" t="n">
         <v>37.8</v>
       </c>
@@ -18532,7 +18083,9 @@
       <c r="N266" s="1" t="n">
         <v>97.43915</v>
       </c>
-      <c r="O266" s="7"/>
+      <c r="O266" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P266" s="1" t="n">
         <v>38.2</v>
       </c>
@@ -18599,7 +18152,9 @@
       <c r="N267" s="1" t="n">
         <v>97.41605</v>
       </c>
-      <c r="O267" s="7"/>
+      <c r="O267" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P267" s="1" t="n">
         <v>38.3</v>
       </c>
@@ -18666,7 +18221,9 @@
       <c r="N268" s="1" t="n">
         <v>97.49899</v>
       </c>
-      <c r="O268" s="7"/>
+      <c r="O268" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P268" s="1" t="n">
         <v>36.8</v>
       </c>
@@ -18733,7 +18290,9 @@
       <c r="N269" s="1" t="n">
         <v>97.65857</v>
       </c>
-      <c r="O269" s="7"/>
+      <c r="O269" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P269" s="1" t="n">
         <v>37.8</v>
       </c>
@@ -18800,7 +18359,9 @@
       <c r="N270" s="1" t="n">
         <v>97.7195</v>
       </c>
-      <c r="O270" s="7"/>
+      <c r="O270" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P270" s="1" t="n">
         <v>35.5</v>
       </c>
@@ -18867,7 +18428,9 @@
       <c r="N271" s="1" t="n">
         <v>97.65778</v>
       </c>
-      <c r="O271" s="7"/>
+      <c r="O271" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P271" s="1" t="n">
         <v>38.3</v>
       </c>
@@ -18934,7 +18497,9 @@
       <c r="N272" s="1" t="n">
         <v>97.53981</v>
       </c>
-      <c r="O272" s="7"/>
+      <c r="O272" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P272" s="1" t="n">
         <v>38.4</v>
       </c>
@@ -19001,7 +18566,9 @@
       <c r="N273" s="1" t="n">
         <v>97.40134</v>
       </c>
-      <c r="O273" s="7"/>
+      <c r="O273" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P273" s="1" t="n">
         <v>38.3</v>
       </c>
@@ -19068,7 +18635,9 @@
       <c r="N274" s="1" t="n">
         <v>97.27413</v>
       </c>
-      <c r="O274" s="7"/>
+      <c r="O274" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P274" s="1" t="n">
         <v>38.8</v>
       </c>
@@ -19135,7 +18704,9 @@
       <c r="N275" s="1" t="n">
         <v>97.14178</v>
       </c>
-      <c r="O275" s="7"/>
+      <c r="O275" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P275" s="1" t="n">
         <v>39.4</v>
       </c>
@@ -19202,7 +18773,9 @@
       <c r="N276" s="1" t="n">
         <v>97.06688</v>
       </c>
-      <c r="O276" s="7"/>
+      <c r="O276" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P276" s="1" t="n">
         <v>39.2</v>
       </c>
@@ -19269,7 +18842,9 @@
       <c r="N277" s="1" t="n">
         <v>97.04932</v>
       </c>
-      <c r="O277" s="7"/>
+      <c r="O277" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P277" s="1" t="n">
         <v>42.8</v>
       </c>
@@ -19336,7 +18911,9 @@
       <c r="N278" s="1" t="n">
         <v>97.10123</v>
       </c>
-      <c r="O278" s="7"/>
+      <c r="O278" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P278" s="1" t="n">
         <v>46</v>
       </c>
@@ -19403,7 +18980,9 @@
       <c r="N279" s="1" t="n">
         <v>97.17318</v>
       </c>
-      <c r="O279" s="7"/>
+      <c r="O279" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P279" s="1" t="n">
         <v>54.4</v>
       </c>
@@ -19470,7 +19049,9 @@
       <c r="N280" s="1" t="n">
         <v>97.28497</v>
       </c>
-      <c r="O280" s="7"/>
+      <c r="O280" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P280" s="1" t="n">
         <v>53.9</v>
       </c>
@@ -19537,7 +19118,9 @@
       <c r="N281" s="1" t="n">
         <v>97.45365</v>
       </c>
-      <c r="O281" s="7"/>
+      <c r="O281" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P281" s="1" t="n">
         <v>54.2</v>
       </c>
@@ -19604,7 +19187,9 @@
       <c r="N282" s="1" t="n">
         <v>97.58179</v>
       </c>
-      <c r="O282" s="7"/>
+      <c r="O282" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P282" s="1" t="n">
         <v>56.1</v>
       </c>
@@ -19671,7 +19256,9 @@
       <c r="N283" s="1" t="n">
         <v>97.65411</v>
       </c>
-      <c r="O283" s="7"/>
+      <c r="O283" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P283" s="1" t="n">
         <v>57.5</v>
       </c>
@@ -19738,7 +19325,9 @@
       <c r="N284" s="1" t="n">
         <v>97.70073</v>
       </c>
-      <c r="O284" s="7"/>
+      <c r="O284" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P284" s="1" t="n">
         <v>63.6</v>
       </c>
@@ -19805,7 +19394,9 @@
       <c r="N285" s="1" t="n">
         <v>97.72482</v>
       </c>
-      <c r="O285" s="7"/>
+      <c r="O285" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P285" s="1" t="n">
         <v>63.1</v>
       </c>
@@ -19872,7 +19463,9 @@
       <c r="N286" s="1" t="n">
         <v>97.74731</v>
       </c>
-      <c r="O286" s="7"/>
+      <c r="O286" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P286" s="1" t="n">
         <v>62.5</v>
       </c>
@@ -19939,7 +19532,9 @@
       <c r="N287" s="1" t="n">
         <v>97.78286</v>
       </c>
-      <c r="O287" s="7"/>
+      <c r="O287" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P287" s="1" t="n">
         <v>64.4</v>
       </c>
@@ -20006,7 +19601,9 @@
       <c r="N288" s="1" t="n">
         <v>97.81733</v>
       </c>
-      <c r="O288" s="7"/>
+      <c r="O288" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="P288" s="1" t="n">
         <v>66</v>
       </c>
@@ -20073,7 +19670,9 @@
       <c r="N289" s="1" t="n">
         <v>97.86355</v>
       </c>
-      <c r="O289" s="7"/>
+      <c r="O289" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P289" s="1" t="n">
         <v>69.9</v>
       </c>
@@ -20140,7 +19739,9 @@
       <c r="N290" s="1" t="n">
         <v>97.92692</v>
       </c>
-      <c r="O290" s="7"/>
+      <c r="O290" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P290" s="1" t="n">
         <v>60.5</v>
       </c>
@@ -20207,7 +19808,9 @@
       <c r="N291" s="1" t="n">
         <v>97.95911</v>
       </c>
-      <c r="O291" s="7"/>
+      <c r="O291" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P291" s="1" t="n">
         <v>61.3</v>
       </c>
@@ -20274,7 +19877,9 @@
       <c r="N292" s="1" t="n">
         <v>97.97745</v>
       </c>
-      <c r="O292" s="7"/>
+      <c r="O292" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P292" s="1" t="n">
         <v>58.9</v>
       </c>
@@ -20341,7 +19946,9 @@
       <c r="N293" s="1" t="n">
         <v>98.03268</v>
       </c>
-      <c r="O293" s="7"/>
+      <c r="O293" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P293" s="1" t="n">
         <v>61</v>
       </c>
@@ -20408,7 +20015,9 @@
       <c r="N294" s="1" t="n">
         <v>98.09932</v>
       </c>
-      <c r="O294" s="7"/>
+      <c r="O294" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P294" s="1" t="n">
         <v>58.6</v>
       </c>
@@ -20475,7 +20084,9 @@
       <c r="N295" s="1" t="n">
         <v>98.20308</v>
       </c>
-      <c r="O295" s="7"/>
+      <c r="O295" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P295" s="1" t="n">
         <v>58.1</v>
       </c>
@@ -20542,7 +20153,9 @@
       <c r="N296" s="1" t="n">
         <v>98.35426</v>
       </c>
-      <c r="O296" s="7"/>
+      <c r="O296" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P296" s="1" t="n">
         <v>56.1</v>
       </c>
@@ -20609,7 +20222,9 @@
       <c r="N297" s="1" t="n">
         <v>98.44395</v>
       </c>
-      <c r="O297" s="7"/>
+      <c r="O297" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P297" s="1" t="n">
         <v>53</v>
       </c>
@@ -20676,7 +20291,9 @@
       <c r="N298" s="1" t="n">
         <v>98.45828</v>
       </c>
-      <c r="O298" s="7"/>
+      <c r="O298" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P298" s="1" t="n">
         <v>50</v>
       </c>
@@ -20743,7 +20360,9 @@
       <c r="N299" s="1" t="n">
         <v>98.48</v>
       </c>
-      <c r="O299" s="7"/>
+      <c r="O299" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P299" s="1" t="n">
         <v>50.8</v>
       </c>
@@ -20810,7 +20429,9 @@
       <c r="N300" s="1" t="n">
         <v>98.67419</v>
       </c>
-      <c r="O300" s="7"/>
+      <c r="O300" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P300" s="1" t="n">
         <v>50.3</v>
       </c>
@@ -20877,7 +20498,9 @@
       <c r="N301" s="1" t="n">
         <v>99.17525</v>
       </c>
-      <c r="O301" s="7"/>
+      <c r="O301" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P301" s="1" t="n">
         <v>50.6</v>
       </c>
@@ -20944,7 +20567,9 @@
       <c r="N302" s="1" t="n">
         <v>99.98392</v>
       </c>
-      <c r="O302" s="7"/>
+      <c r="O302" s="8" t="n">
+        <v>15</v>
+      </c>
       <c r="P302" s="1" t="n">
         <v>50.3</v>
       </c>
@@ -21011,7 +20636,9 @@
       <c r="N303" s="1" t="n">
         <v>100.4664</v>
       </c>
-      <c r="O303" s="7"/>
+      <c r="O303" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P303" s="1" t="n">
         <v>49.9</v>
       </c>
@@ -21078,7 +20705,9 @@
       <c r="N304" s="1" t="n">
         <v>100.628</v>
       </c>
-      <c r="O304" s="7"/>
+      <c r="O304" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P304" s="1" t="n">
         <v>47.8</v>
       </c>
@@ -21145,7 +20774,9 @@
       <c r="N305" s="1" t="n">
         <v>100.5948</v>
       </c>
-      <c r="O305" s="7"/>
+      <c r="O305" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P305" s="1" t="n">
         <v>48.2</v>
       </c>
@@ -21212,7 +20843,9 @@
       <c r="N306" s="1" t="n">
         <v>100.5607</v>
       </c>
-      <c r="O306" s="7"/>
+      <c r="O306" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P306" s="1" t="n">
         <v>47.1</v>
       </c>
@@ -21279,7 +20912,9 @@
       <c r="N307" s="1" t="n">
         <v>100.6022</v>
       </c>
-      <c r="O307" s="7"/>
+      <c r="O307" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P307" s="1" t="n">
         <v>47.8</v>
       </c>
@@ -21346,7 +20981,9 @@
       <c r="N308" s="1" t="n">
         <v>100.694</v>
       </c>
-      <c r="O308" s="7"/>
+      <c r="O308" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P308" s="1" t="n">
         <v>47.9</v>
       </c>
@@ -21413,7 +21050,9 @@
       <c r="N309" s="1" t="n">
         <v>100.7403</v>
       </c>
-      <c r="O309" s="7"/>
+      <c r="O309" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P309" s="1" t="n">
         <v>47.7</v>
       </c>
@@ -21480,7 +21119,9 @@
       <c r="N310" s="1" t="n">
         <v>100.7759</v>
       </c>
-      <c r="O310" s="7"/>
+      <c r="O310" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P310" s="1" t="n">
         <v>49.9</v>
       </c>
@@ -21547,7 +21188,9 @@
       <c r="N311" s="1" t="n">
         <v>100.8461</v>
       </c>
-      <c r="O311" s="7"/>
+      <c r="O311" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P311" s="1" t="n">
         <v>50.9</v>
       </c>
@@ -21614,7 +21257,9 @@
       <c r="N312" s="1" t="n">
         <v>100.9259</v>
       </c>
-      <c r="O312" s="7"/>
+      <c r="O312" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P312" s="1" t="n">
         <v>52</v>
       </c>
@@ -21681,7 +21326,9 @@
       <c r="N313" s="1" t="n">
         <v>101.0322</v>
       </c>
-      <c r="O313" s="7"/>
+      <c r="O313" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P313" s="1" t="n">
         <v>50.7</v>
       </c>
@@ -21748,7 +21395,9 @@
       <c r="N314" s="1" t="n">
         <v>101.1899</v>
       </c>
-      <c r="O314" s="7"/>
+      <c r="O314" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P314" s="1" t="n">
         <v>51.2</v>
       </c>
@@ -21815,7 +21464,9 @@
       <c r="N315" s="1" t="n">
         <v>101.2981</v>
       </c>
-      <c r="O315" s="7"/>
+      <c r="O315" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P315" s="1" t="n">
         <v>51</v>
       </c>
@@ -21882,7 +21533,9 @@
       <c r="N316" s="1" t="n">
         <v>101.3835</v>
       </c>
-      <c r="O316" s="7"/>
+      <c r="O316" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P316" s="1" t="n">
         <v>51</v>
       </c>
@@ -21949,7 +21602,9 @@
       <c r="N317" s="1" t="n">
         <v>101.4554</v>
       </c>
-      <c r="O317" s="7"/>
+      <c r="O317" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P317" s="1" t="n">
         <v>49.7</v>
       </c>
@@ -22016,7 +21671,9 @@
       <c r="N318" s="1" t="n">
         <v>101.5396</v>
       </c>
-      <c r="O318" s="7"/>
+      <c r="O318" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P318" s="1" t="n">
         <v>53.4</v>
       </c>
@@ -22083,7 +21740,9 @@
       <c r="N319" s="1" t="n">
         <v>101.4779</v>
       </c>
-      <c r="O319" s="7"/>
+      <c r="O319" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P319" s="1" t="n">
         <v>50.5</v>
       </c>
@@ -22150,7 +21809,9 @@
       <c r="N320" s="1" t="n">
         <v>101.2557</v>
       </c>
-      <c r="O320" s="7"/>
+      <c r="O320" s="8" t="n">
+        <v>15</v>
+      </c>
       <c r="P320" s="1" t="n">
         <v>48</v>
       </c>
@@ -22217,7 +21878,9 @@
       <c r="N321" s="1" t="n">
         <v>101.0356</v>
       </c>
-      <c r="O321" s="7"/>
+      <c r="O321" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P321" s="1" t="n">
         <v>52.6</v>
       </c>
@@ -22284,7 +21947,9 @@
       <c r="N322" s="1" t="n">
         <v>100.9235</v>
       </c>
-      <c r="O322" s="7"/>
+      <c r="O322" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P322" s="1" t="n">
         <v>52.4</v>
       </c>
@@ -22351,7 +22016,9 @@
       <c r="N323" s="1" t="n">
         <v>100.9418</v>
       </c>
-      <c r="O323" s="7"/>
+      <c r="O323" s="8" t="n">
+        <v>15</v>
+      </c>
       <c r="P323" s="1" t="n">
         <v>51.2</v>
       </c>
@@ -22418,7 +22085,9 @@
       <c r="N324" s="1" t="n">
         <v>100.9952</v>
       </c>
-      <c r="O324" s="7"/>
+      <c r="O324" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P324" s="1" t="n">
         <v>51.2</v>
       </c>
@@ -22485,7 +22154,9 @@
       <c r="N325" s="1" t="n">
         <v>100.9989</v>
       </c>
-      <c r="O325" s="7"/>
+      <c r="O325" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P325" s="1" t="n">
         <v>50.5</v>
       </c>
@@ -22552,7 +22223,9 @@
       <c r="N326" s="1" t="n">
         <v>100.907</v>
       </c>
-      <c r="O326" s="7"/>
+      <c r="O326" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P326" s="1" t="n">
         <v>54.9</v>
       </c>
@@ -22619,7 +22292,9 @@
       <c r="N327" s="1" t="n">
         <v>100.7729</v>
       </c>
-      <c r="O327" s="7"/>
+      <c r="O327" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P327" s="1" t="n">
         <v>52.6</v>
       </c>
@@ -22686,7 +22361,9 @@
       <c r="N328" s="1" t="n">
         <v>100.6404</v>
       </c>
-      <c r="O328" s="7"/>
+      <c r="O328" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P328" s="1" t="n">
         <v>55</v>
       </c>
@@ -22753,7 +22430,9 @@
       <c r="N329" s="1" t="n">
         <v>100.5131</v>
       </c>
-      <c r="O329" s="7"/>
+      <c r="O329" s="8" t="n">
+        <v>15</v>
+      </c>
       <c r="P329" s="1" t="n">
         <v>55.5</v>
       </c>
@@ -22820,7 +22499,9 @@
       <c r="N330" s="1" t="n">
         <v>100.4142</v>
       </c>
-      <c r="O330" s="7"/>
+      <c r="O330" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P330" s="1" t="n">
         <v>57.2</v>
       </c>
@@ -22887,7 +22568,9 @@
       <c r="N331" s="1" t="n">
         <v>100.3308</v>
       </c>
-      <c r="O331" s="7"/>
+      <c r="O331" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P331" s="1" t="n">
         <v>57.4</v>
       </c>
@@ -22954,7 +22637,9 @@
       <c r="N332" s="1" t="n">
         <v>100.2581</v>
       </c>
-      <c r="O332" s="7"/>
+      <c r="O332" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P332" s="1" t="n">
         <v>57.5</v>
       </c>
@@ -23021,7 +22706,9 @@
       <c r="N333" s="1" t="n">
         <v>100.301</v>
       </c>
-      <c r="O333" s="7"/>
+      <c r="O333" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P333" s="1" t="n">
         <v>59.3</v>
       </c>
@@ -23088,7 +22775,9 @@
       <c r="N334" s="1" t="n">
         <v>100.4088</v>
       </c>
-      <c r="O334" s="7"/>
+      <c r="O334" s="8" t="n">
+        <v>15</v>
+      </c>
       <c r="P334" s="1" t="n">
         <v>60</v>
       </c>
@@ -23155,7 +22844,9 @@
       <c r="N335" s="1" t="n">
         <v>100.3693</v>
       </c>
-      <c r="O335" s="7"/>
+      <c r="O335" s="8" t="n">
+        <v>15</v>
+      </c>
       <c r="P335" s="1" t="n">
         <v>60.7</v>
       </c>
@@ -23222,7 +22913,9 @@
       <c r="N336" s="1" t="n">
         <v>100.2573</v>
       </c>
-      <c r="O336" s="7"/>
+      <c r="O336" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P336" s="1" t="n">
         <v>58.8</v>
       </c>
@@ -23289,7 +22982,9 @@
       <c r="N337" s="1" t="n">
         <v>100.1647</v>
       </c>
-      <c r="O337" s="7"/>
+      <c r="O337" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P337" s="1" t="n">
         <v>61</v>
       </c>
@@ -23356,7 +23051,9 @@
       <c r="N338" s="1" t="n">
         <v>100.0737</v>
       </c>
-      <c r="O338" s="7"/>
+      <c r="O338" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P338" s="1" t="n">
         <v>57.5</v>
       </c>
@@ -23423,7 +23120,9 @@
       <c r="N339" s="1" t="n">
         <v>100.0876</v>
       </c>
-      <c r="O339" s="7"/>
+      <c r="O339" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P339" s="1" t="n">
         <v>56.2</v>
       </c>
@@ -23490,7 +23189,9 @@
       <c r="N340" s="1" t="n">
         <v>100.2013</v>
       </c>
-      <c r="O340" s="7"/>
+      <c r="O340" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P340" s="1" t="n">
         <v>54.6</v>
       </c>
@@ -23557,7 +23258,9 @@
       <c r="N341" s="1" t="n">
         <v>100.4249</v>
       </c>
-      <c r="O341" s="7"/>
+      <c r="O341" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P341" s="1" t="n">
         <v>55.8</v>
       </c>
@@ -23624,7 +23327,9 @@
       <c r="N342" s="1" t="n">
         <v>100.5509</v>
       </c>
-      <c r="O342" s="7"/>
+      <c r="O342" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P342" s="1" t="n">
         <v>55.5</v>
       </c>
@@ -23691,7 +23396,9 @@
       <c r="N343" s="1" t="n">
         <v>100.5975</v>
       </c>
-      <c r="O343" s="7"/>
+      <c r="O343" s="8" t="n">
+        <v>15</v>
+      </c>
       <c r="P343" s="1" t="n">
         <v>59.3</v>
       </c>
@@ -23758,7 +23465,9 @@
       <c r="N344" s="1" t="n">
         <v>100.6279</v>
       </c>
-      <c r="O344" s="7"/>
+      <c r="O344" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P344" s="1" t="n">
         <v>58.2</v>
       </c>
@@ -23825,7 +23534,9 @@
       <c r="N345" s="1" t="n">
         <v>100.667</v>
       </c>
-      <c r="O345" s="7"/>
+      <c r="O345" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P345" s="1" t="n">
         <v>56</v>
       </c>
@@ -23892,7 +23603,9 @@
       <c r="N346" s="1" t="n">
         <v>100.7077</v>
       </c>
-      <c r="O346" s="7"/>
+      <c r="O346" s="8" t="n">
+        <v>15</v>
+      </c>
       <c r="P346" s="1" t="n">
         <v>54.5</v>
       </c>
@@ -23959,7 +23672,9 @@
       <c r="N347" s="1" t="n">
         <v>100.8271</v>
       </c>
-      <c r="O347" s="7"/>
+      <c r="O347" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P347" s="1" t="n">
         <v>55.4</v>
       </c>
@@ -24026,7 +23741,9 @@
       <c r="N348" s="1" t="n">
         <v>100.954</v>
       </c>
-      <c r="O348" s="7"/>
+      <c r="O348" s="8" t="n">
+        <v>15</v>
+      </c>
       <c r="P348" s="1" t="n">
         <v>55.6</v>
       </c>
@@ -24093,7 +23810,9 @@
       <c r="N349" s="1" t="n">
         <v>101.014</v>
       </c>
-      <c r="O349" s="7"/>
+      <c r="O349" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P349" s="1" t="n">
         <v>56</v>
       </c>
@@ -24160,7 +23879,9 @@
       <c r="N350" s="1" t="n">
         <v>101.0497</v>
       </c>
-      <c r="O350" s="7"/>
+      <c r="O350" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P350" s="1" t="n">
         <v>54.7</v>
       </c>
@@ -24227,7 +23948,9 @@
       <c r="N351" s="1" t="n">
         <v>101.0693</v>
       </c>
-      <c r="O351" s="7"/>
+      <c r="O351" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P351" s="1" t="n">
         <v>54.1</v>
       </c>
@@ -24294,7 +24017,9 @@
       <c r="N352" s="1" t="n">
         <v>101.102</v>
       </c>
-      <c r="O352" s="7"/>
+      <c r="O352" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P352" s="1" t="n">
         <v>51.5</v>
       </c>
@@ -24361,7 +24086,9 @@
       <c r="N353" s="1" t="n">
         <v>101.1146</v>
       </c>
-      <c r="O353" s="7"/>
+      <c r="O353" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P353" s="1" t="n">
         <v>52.2</v>
       </c>
@@ -24428,7 +24155,9 @@
       <c r="N354" s="1" t="n">
         <v>101.1067</v>
       </c>
-      <c r="O354" s="7"/>
+      <c r="O354" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P354" s="1" t="n">
         <v>49.3</v>
       </c>
@@ -24495,7 +24224,9 @@
       <c r="N355" s="1" t="n">
         <v>101.2075</v>
       </c>
-      <c r="O355" s="7"/>
+      <c r="O355" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P355" s="1" t="n">
         <v>47.3</v>
       </c>
@@ -24562,7 +24293,9 @@
       <c r="N356" s="1" t="n">
         <v>101.3553</v>
       </c>
-      <c r="O356" s="7"/>
+      <c r="O356" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P356" s="1" t="n">
         <v>45.9</v>
       </c>
@@ -24629,7 +24362,9 @@
       <c r="N357" s="1" t="n">
         <v>101.4521</v>
       </c>
-      <c r="O357" s="7"/>
+      <c r="O357" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P357" s="1" t="n">
         <v>45.1</v>
       </c>
@@ -24696,7 +24431,9 @@
       <c r="N358" s="1" t="n">
         <v>101.5083</v>
       </c>
-      <c r="O358" s="7"/>
+      <c r="O358" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P358" s="1" t="n">
         <v>46</v>
       </c>
@@ -24763,7 +24500,9 @@
       <c r="N359" s="1" t="n">
         <v>101.5552</v>
       </c>
-      <c r="O359" s="7"/>
+      <c r="O359" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P359" s="1" t="n">
         <v>46.8</v>
       </c>
@@ -24830,7 +24569,9 @@
       <c r="N360" s="1" t="n">
         <v>101.6064</v>
       </c>
-      <c r="O360" s="7"/>
+      <c r="O360" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P360" s="1" t="n">
         <v>46.8</v>
       </c>
@@ -24897,7 +24638,9 @@
       <c r="N361" s="1" t="n">
         <v>101.6024</v>
       </c>
-      <c r="O361" s="7"/>
+      <c r="O361" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P361" s="1" t="n">
         <v>47.4</v>
       </c>
@@ -24964,7 +24707,9 @@
       <c r="N362" s="1" t="n">
         <v>101.4782</v>
       </c>
-      <c r="O362" s="7"/>
+      <c r="O362" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P362" s="1" t="n">
         <v>47.2</v>
       </c>
@@ -25031,7 +24776,9 @@
       <c r="N363" s="1" t="n">
         <v>101.3035</v>
       </c>
-      <c r="O363" s="7"/>
+      <c r="O363" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P363" s="1" t="n">
         <v>49.1</v>
       </c>
@@ -25098,7 +24845,9 @@
       <c r="N364" s="1" t="n">
         <v>101.1887</v>
       </c>
-      <c r="O364" s="7"/>
+      <c r="O364" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P364" s="1" t="n">
         <v>49.9</v>
       </c>
@@ -25165,7 +24914,9 @@
       <c r="N365" s="1" t="n">
         <v>101.1209</v>
       </c>
-      <c r="O365" s="7"/>
+      <c r="O365" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P365" s="1" t="n">
         <v>50</v>
       </c>
@@ -25232,7 +24983,9 @@
       <c r="N366" s="1" t="n">
         <v>101.0516</v>
       </c>
-      <c r="O366" s="7"/>
+      <c r="O366" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P366" s="1" t="n">
         <v>49.5</v>
       </c>
@@ -25299,7 +25052,9 @@
       <c r="N367" s="1" t="n">
         <v>100.9827</v>
       </c>
-      <c r="O367" s="7"/>
+      <c r="O367" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P367" s="1" t="n">
         <v>49.2</v>
       </c>
@@ -25366,7 +25121,9 @@
       <c r="N368" s="1" t="n">
         <v>100.8622</v>
       </c>
-      <c r="O368" s="7"/>
+      <c r="O368" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P368" s="1" t="n">
         <v>46.6</v>
       </c>
@@ -25433,7 +25190,9 @@
       <c r="N369" s="1" t="n">
         <v>100.6808</v>
       </c>
-      <c r="O369" s="7"/>
+      <c r="O369" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P369" s="1" t="n">
         <v>46.1</v>
       </c>
@@ -25500,7 +25259,9 @@
       <c r="N370" s="1" t="n">
         <v>100.3727</v>
       </c>
-      <c r="O370" s="7"/>
+      <c r="O370" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P370" s="1" t="n">
         <v>44.5</v>
       </c>
@@ -25567,7 +25328,9 @@
       <c r="N371" s="1" t="n">
         <v>100.0521</v>
       </c>
-      <c r="O371" s="7"/>
+      <c r="O371" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P371" s="1" t="n">
         <v>43.2</v>
       </c>
@@ -25634,7 +25397,9 @@
       <c r="N372" s="1" t="n">
         <v>99.75493</v>
       </c>
-      <c r="O372" s="7"/>
+      <c r="O372" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P372" s="1" t="n">
         <v>41.3</v>
       </c>
@@ -25701,7 +25466,9 @@
       <c r="N373" s="1" t="n">
         <v>99.5768</v>
       </c>
-      <c r="O373" s="7"/>
+      <c r="O373" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P373" s="1" t="n">
         <v>40.8</v>
       </c>
@@ -25768,7 +25535,9 @@
       <c r="N374" s="1" t="n">
         <v>99.51335</v>
       </c>
-      <c r="O374" s="7"/>
+      <c r="O374" s="8" t="n">
+        <v>15</v>
+      </c>
       <c r="P374" s="1" t="n">
         <v>39.2</v>
       </c>
@@ -25835,7 +25604,9 @@
       <c r="N375" s="1" t="n">
         <v>99.57451</v>
       </c>
-      <c r="O375" s="7"/>
+      <c r="O375" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P375" s="1" t="n">
         <v>39.4</v>
       </c>
@@ -25902,7 +25673,9 @@
       <c r="N376" s="1" t="n">
         <v>99.82052</v>
       </c>
-      <c r="O376" s="7"/>
+      <c r="O376" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P376" s="1" t="n">
         <v>40.7</v>
       </c>
@@ -25969,7 +25742,9 @@
       <c r="N377" s="1" t="n">
         <v>99.92625</v>
       </c>
-      <c r="O377" s="7"/>
+      <c r="O377" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P377" s="1" t="n">
         <v>42.8</v>
       </c>
@@ -26036,7 +25811,9 @@
       <c r="N378" s="1" t="n">
         <v>99.9948</v>
       </c>
-      <c r="O378" s="7"/>
+      <c r="O378" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P378" s="1" t="n">
         <v>44.5</v>
       </c>
@@ -26103,7 +25880,9 @@
       <c r="N379" s="1" t="n">
         <v>99.98592</v>
       </c>
-      <c r="O379" s="7"/>
+      <c r="O379" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P379" s="1" t="n">
         <v>50.3</v>
       </c>
@@ -26170,7 +25949,9 @@
       <c r="N380" s="1" t="n">
         <v>99.87582</v>
       </c>
-      <c r="O380" s="7"/>
+      <c r="O380" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P380" s="1" t="n">
         <v>50.6</v>
       </c>
@@ -26237,7 +26018,9 @@
       <c r="N381" s="1" t="n">
         <v>99.75738</v>
       </c>
-      <c r="O381" s="7"/>
+      <c r="O381" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P381" s="1" t="n">
         <v>52.9</v>
       </c>
@@ -26304,7 +26087,9 @@
       <c r="N382" s="1" t="n">
         <v>99.59397</v>
       </c>
-      <c r="O382" s="7"/>
+      <c r="O382" s="8" t="n">
+        <v>13</v>
+      </c>
       <c r="P382" s="1" t="n">
         <v>54.9</v>
       </c>
@@ -26371,7 +26156,9 @@
       <c r="N383" s="1" t="n">
         <v>99.40193</v>
       </c>
-      <c r="O383" s="7"/>
+      <c r="O383" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P383" s="1" t="n">
         <v>53.1</v>
       </c>
@@ -26438,7 +26225,9 @@
       <c r="N384" s="1" t="n">
         <v>99.39562</v>
       </c>
-      <c r="O384" s="7"/>
+      <c r="O384" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P384" s="1" t="n">
         <v>49.5</v>
       </c>
@@ -26505,7 +26294,9 @@
       <c r="N385" s="1" t="n">
         <v>99.47615</v>
       </c>
-      <c r="O385" s="7"/>
+      <c r="O385" s="8" t="n">
+        <v>12</v>
+      </c>
       <c r="P385" s="1" t="n">
         <v>46.8</v>
       </c>
@@ -26572,8 +26363,8 @@
       <c r="N386" s="1" t="n">
         <v>99.54824</v>
       </c>
-      <c r="O386" s="8" t="s">
-        <v>29</v>
+      <c r="O386" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P386" s="1" t="n">
         <v>47.3</v>
@@ -26641,8 +26432,8 @@
       <c r="N387" s="1" t="n">
         <v>99.595</v>
       </c>
-      <c r="O387" s="8" t="s">
-        <v>30</v>
+      <c r="O387" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P387" s="1" t="n">
         <v>52.7</v>
@@ -26710,8 +26501,8 @@
       <c r="N388" s="1" t="n">
         <v>99.6241</v>
       </c>
-      <c r="O388" s="8" t="s">
-        <v>31</v>
+      <c r="O388" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P388" s="1" t="n">
         <v>54.6</v>
@@ -26779,8 +26570,8 @@
       <c r="N389" s="1" t="n">
         <v>99.70319</v>
       </c>
-      <c r="O389" s="8" t="s">
-        <v>32</v>
+      <c r="O389" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P389" s="1" t="n">
         <v>52.6</v>
@@ -26848,8 +26639,8 @@
       <c r="N390" s="1" t="n">
         <v>99.85779</v>
       </c>
-      <c r="O390" s="8" t="s">
-        <v>33</v>
+      <c r="O390" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P390" s="1" t="n">
         <v>55.7</v>
@@ -26917,8 +26708,8 @@
       <c r="N391" s="1" t="n">
         <v>100.0104</v>
       </c>
-      <c r="O391" s="8" t="s">
-        <v>34</v>
+      <c r="O391" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P391" s="1" t="n">
         <v>53.6</v>
@@ -26986,8 +26777,8 @@
       <c r="N392" s="1" t="n">
         <v>100.1</v>
       </c>
-      <c r="O392" s="8" t="s">
-        <v>35</v>
+      <c r="O392" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P392" s="1" t="n">
         <v>53.9</v>
@@ -27055,8 +26846,8 @@
       <c r="N393" s="1" t="n">
         <v>100.1029</v>
       </c>
-      <c r="O393" s="8" t="s">
-        <v>36</v>
+      <c r="O393" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P393" s="1" t="n">
         <v>53.4</v>
@@ -27124,8 +26915,8 @@
       <c r="N394" s="1" t="n">
         <v>99.97061</v>
       </c>
-      <c r="O394" s="8" t="s">
-        <v>37</v>
+      <c r="O394" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P394" s="1" t="n">
         <v>49.7</v>
@@ -27193,8 +26984,8 @@
       <c r="N395" s="1" t="n">
         <v>99.67268</v>
       </c>
-      <c r="O395" s="8" t="s">
-        <v>38</v>
+      <c r="O395" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P395" s="1" t="n">
         <v>50.3</v>
@@ -27262,8 +27053,8 @@
       <c r="N396" s="1" t="n">
         <v>99.31061</v>
       </c>
-      <c r="O396" s="8" t="s">
-        <v>39</v>
+      <c r="O396" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P396" s="1" t="n">
         <v>53.6</v>
@@ -27331,8 +27122,8 @@
       <c r="N397" s="1" t="n">
         <v>99.08693</v>
       </c>
-      <c r="O397" s="8" t="s">
-        <v>40</v>
+      <c r="O397" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P397" s="1" t="n">
         <v>54.2</v>
@@ -27400,8 +27191,8 @@
       <c r="N398" s="1" t="n">
         <v>98.95488</v>
       </c>
-      <c r="O398" s="8" t="s">
-        <v>41</v>
+      <c r="O398" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P398" s="1" t="n">
         <v>55.8</v>
@@ -27469,8 +27260,8 @@
       <c r="N399" s="1" t="n">
         <v>98.71415</v>
       </c>
-      <c r="O399" s="8" t="s">
-        <v>42</v>
+      <c r="O399" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P399" s="1" t="n">
         <v>55.2</v>
@@ -27538,8 +27329,8 @@
       <c r="N400" s="1" t="n">
         <v>98.49004</v>
       </c>
-      <c r="O400" s="8" t="s">
-        <v>43</v>
+      <c r="O400" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P400" s="1" t="n">
         <v>53.5</v>
@@ -27607,8 +27398,8 @@
       <c r="N401" s="1" t="n">
         <v>98.46266</v>
       </c>
-      <c r="O401" s="8" t="s">
-        <v>44</v>
+      <c r="O401" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P401" s="1" t="n">
         <v>50.2</v>
@@ -27676,8 +27467,8 @@
       <c r="N402" s="1" t="n">
         <v>98.51562</v>
       </c>
-      <c r="O402" s="9" t="s">
-        <v>45</v>
+      <c r="O402" s="10" t="n">
+        <v>13</v>
       </c>
       <c r="P402" s="1" t="n">
         <v>51.2</v>
@@ -27745,8 +27536,8 @@
       <c r="N403" s="1" t="n">
         <v>98.54649</v>
       </c>
-      <c r="O403" s="8" t="s">
-        <v>46</v>
+      <c r="O403" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P403" s="1" t="n">
         <v>49.6</v>
@@ -27814,8 +27605,8 @@
       <c r="N404" s="1" t="n">
         <v>98.62404</v>
       </c>
-      <c r="O404" s="8" t="s">
-        <v>47</v>
+      <c r="O404" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P404" s="1" t="n">
         <v>50.2</v>
@@ -27883,8 +27674,8 @@
       <c r="N405" s="1" t="n">
         <v>98.82938</v>
       </c>
-      <c r="O405" s="8" t="s">
-        <v>48</v>
+      <c r="O405" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P405" s="1" t="n">
         <v>50.7</v>
@@ -27952,8 +27743,8 @@
       <c r="N406" s="1" t="n">
         <v>99.00491</v>
       </c>
-      <c r="O406" s="8" t="s">
-        <v>49</v>
+      <c r="O406" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P406" s="1" t="n">
         <v>50.8</v>
@@ -28021,8 +27812,8 @@
       <c r="N407" s="1" t="n">
         <v>99.01488</v>
       </c>
-      <c r="O407" s="8" t="s">
-        <v>50</v>
+      <c r="O407" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P407" s="1" t="n">
         <v>53.4</v>
@@ -28090,8 +27881,8 @@
       <c r="N408" s="1" t="n">
         <v>99.01735</v>
       </c>
-      <c r="O408" s="8" t="s">
-        <v>51</v>
+      <c r="O408" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P408" s="1" t="n">
         <v>53.8</v>
@@ -28159,8 +27950,8 @@
       <c r="N409" s="1" t="n">
         <v>99.01582</v>
       </c>
-      <c r="O409" s="8" t="s">
-        <v>52</v>
+      <c r="O409" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P409" s="1" t="n">
         <v>55.6</v>
@@ -28228,8 +28019,8 @@
       <c r="N410" s="1" t="n">
         <v>99.13991</v>
       </c>
-      <c r="O410" s="9" t="s">
-        <v>53</v>
+      <c r="O410" s="10" t="n">
+        <v>13</v>
       </c>
       <c r="P410" s="1" t="n">
         <v>56</v>
@@ -28297,8 +28088,8 @@
       <c r="N411" s="1" t="n">
         <v>99.34547</v>
       </c>
-      <c r="O411" s="8" t="s">
-        <v>54</v>
+      <c r="O411" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P411" s="1" t="n">
         <v>56.5</v>
@@ -28366,8 +28157,8 @@
       <c r="N412" s="1" t="n">
         <v>99.52801</v>
       </c>
-      <c r="O412" s="8" t="s">
-        <v>55</v>
+      <c r="O412" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P412" s="1" t="n">
         <v>56.9</v>
@@ -28435,8 +28226,8 @@
       <c r="N413" s="1" t="n">
         <v>99.7007</v>
       </c>
-      <c r="O413" s="8" t="s">
-        <v>56</v>
+      <c r="O413" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P413" s="1" t="n">
         <v>57.4</v>
@@ -28504,8 +28295,8 @@
       <c r="N414" s="1" t="n">
         <v>99.91239</v>
       </c>
-      <c r="O414" s="8" t="s">
-        <v>57</v>
+      <c r="O414" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P414" s="1" t="n">
         <v>58.2</v>
@@ -28573,8 +28364,8 @@
       <c r="N415" s="1" t="n">
         <v>100.1754</v>
       </c>
-      <c r="O415" s="8" t="s">
-        <v>58</v>
+      <c r="O415" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P415" s="1" t="n">
         <v>58.8</v>
@@ -28642,8 +28433,8 @@
       <c r="N416" s="1" t="n">
         <v>100.4272</v>
       </c>
-      <c r="O416" s="8" t="s">
-        <v>59</v>
+      <c r="O416" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P416" s="1" t="n">
         <v>58.5</v>
@@ -28711,8 +28502,8 @@
       <c r="N417" s="1" t="n">
         <v>100.7063</v>
       </c>
-      <c r="O417" s="8" t="s">
-        <v>60</v>
+      <c r="O417" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P417" s="1" t="n">
         <v>58</v>
@@ -28780,8 +28571,8 @@
       <c r="N418" s="1" t="n">
         <v>100.8452</v>
       </c>
-      <c r="O418" s="8" t="s">
-        <v>61</v>
+      <c r="O418" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P418" s="1" t="n">
         <v>59</v>
@@ -28849,8 +28640,8 @@
       <c r="N419" s="1" t="n">
         <v>100.7758</v>
       </c>
-      <c r="O419" s="8" t="s">
-        <v>62</v>
+      <c r="O419" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P419" s="1" t="n">
         <v>59.4</v>
@@ -28918,8 +28709,8 @@
       <c r="N420" s="1" t="n">
         <v>100.6194</v>
       </c>
-      <c r="O420" s="8" t="s">
-        <v>63</v>
+      <c r="O420" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P420" s="1" t="n">
         <v>59.2</v>
@@ -28987,8 +28778,8 @@
       <c r="N421" s="1" t="n">
         <v>100.5366</v>
       </c>
-      <c r="O421" s="8" t="s">
-        <v>64</v>
+      <c r="O421" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P421" s="1" t="n">
         <v>56.1</v>
@@ -29056,8 +28847,8 @@
       <c r="N422" s="1" t="n">
         <v>100.5912</v>
       </c>
-      <c r="O422" s="9" t="s">
-        <v>65</v>
+      <c r="O422" s="10" t="n">
+        <v>13</v>
       </c>
       <c r="P422" s="1" t="n">
         <v>57.4</v>
@@ -29125,8 +28916,8 @@
       <c r="N423" s="1" t="n">
         <v>100.6869</v>
       </c>
-      <c r="O423" s="8" t="s">
-        <v>66</v>
+      <c r="O423" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P423" s="1" t="n">
         <v>55.1</v>
@@ -29194,8 +28985,8 @@
       <c r="N424" s="1" t="n">
         <v>100.7051</v>
       </c>
-      <c r="O424" s="8" t="s">
-        <v>67</v>
+      <c r="O424" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P424" s="1" t="n">
         <v>52.1</v>
@@ -29263,8 +29054,8 @@
       <c r="N425" s="1" t="n">
         <v>100.6731</v>
       </c>
-      <c r="O425" s="8" t="s">
-        <v>68</v>
+      <c r="O425" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P425" s="1" t="n">
         <v>51.5</v>
@@ -29332,8 +29123,8 @@
       <c r="N426" s="1" t="n">
         <v>100.6374</v>
       </c>
-      <c r="O426" s="8" t="s">
-        <v>69</v>
+      <c r="O426" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P426" s="1" t="n">
         <v>46.7</v>
@@ -29401,8 +29192,8 @@
       <c r="N427" s="1" t="n">
         <v>100.6032</v>
       </c>
-      <c r="O427" s="8" t="s">
-        <v>70</v>
+      <c r="O427" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P427" s="1" t="n">
         <v>45.9</v>
@@ -29470,8 +29261,8 @@
       <c r="N428" s="1" t="n">
         <v>100.6442</v>
       </c>
-      <c r="O428" s="8" t="s">
-        <v>71</v>
+      <c r="O428" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P428" s="1" t="n">
         <v>50.7</v>
@@ -29539,8 +29330,8 @@
       <c r="N429" s="1" t="n">
         <v>100.7719</v>
       </c>
-      <c r="O429" s="8" t="s">
-        <v>72</v>
+      <c r="O429" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P429" s="1" t="n">
         <v>47.1</v>
@@ -29608,8 +29399,8 @@
       <c r="N430" s="1" t="n">
         <v>100.8669</v>
       </c>
-      <c r="O430" s="8" t="s">
-        <v>73</v>
+      <c r="O430" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P430" s="1" t="n">
         <v>48.1</v>
@@ -29677,8 +29468,8 @@
       <c r="N431" s="1" t="n">
         <v>100.9539</v>
       </c>
-      <c r="O431" s="8" t="s">
-        <v>74</v>
+      <c r="O431" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P431" s="1" t="n">
         <v>46.7</v>
@@ -29746,8 +29537,8 @@
       <c r="N432" s="1" t="n">
         <v>100.9872</v>
       </c>
-      <c r="O432" s="8" t="s">
-        <v>75</v>
+      <c r="O432" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P432" s="1" t="n">
         <v>45.9</v>
@@ -29815,8 +29606,8 @@
       <c r="N433" s="1" t="n">
         <v>100.9104</v>
       </c>
-      <c r="O433" s="8" t="s">
-        <v>76</v>
+      <c r="O433" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P433" s="1" t="n">
         <v>46.2</v>
@@ -29884,8 +29675,8 @@
       <c r="N434" s="1" t="n">
         <v>100.7231</v>
       </c>
-      <c r="O434" s="9" t="s">
-        <v>77</v>
+      <c r="O434" s="10" t="n">
+        <v>30</v>
       </c>
       <c r="P434" s="1" t="n">
         <v>45.5</v>
@@ -29953,8 +29744,8 @@
       <c r="N435" s="1" t="n">
         <v>100.4393</v>
       </c>
-      <c r="O435" s="8" t="s">
-        <v>78</v>
+      <c r="O435" s="8" t="n">
+        <v>27</v>
       </c>
       <c r="P435" s="1" t="n">
         <v>45.9</v>
@@ -30022,8 +29813,8 @@
       <c r="N436" s="1" t="n">
         <v>100.238</v>
       </c>
-      <c r="O436" s="8" t="s">
-        <v>79</v>
+      <c r="O436" s="8" t="n">
+        <v>20</v>
       </c>
       <c r="P436" s="1" t="n">
         <v>46.9</v>
@@ -30091,8 +29882,8 @@
       <c r="N437" s="1" t="n">
         <v>100.1899</v>
       </c>
-      <c r="O437" s="8" t="s">
-        <v>80</v>
+      <c r="O437" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P437" s="1" t="n">
         <v>49.3</v>
@@ -30160,8 +29951,8 @@
       <c r="N438" s="1" t="n">
         <v>100.3123</v>
       </c>
-      <c r="O438" s="8" t="s">
-        <v>81</v>
+      <c r="O438" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P438" s="1" t="n">
         <v>49.1</v>
@@ -30229,8 +30020,8 @@
       <c r="N439" s="1" t="n">
         <v>100.4623</v>
       </c>
-      <c r="O439" s="8" t="s">
-        <v>82</v>
+      <c r="O439" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P439" s="1" t="n">
         <v>53.6</v>
@@ -30298,8 +30089,8 @@
       <c r="N440" s="1" t="n">
         <v>100.6343</v>
       </c>
-      <c r="O440" s="8" t="s">
-        <v>83</v>
+      <c r="O440" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P440" s="1" t="n">
         <v>49.7</v>
@@ -30367,8 +30158,8 @@
       <c r="N441" s="1" t="n">
         <v>100.7918</v>
       </c>
-      <c r="O441" s="8" t="s">
-        <v>84</v>
+      <c r="O441" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P441" s="1" t="n">
         <v>51.6</v>
@@ -30436,8 +30227,8 @@
       <c r="N442" s="1" t="n">
         <v>100.9969</v>
       </c>
-      <c r="O442" s="8" t="s">
-        <v>85</v>
+      <c r="O442" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P442" s="1" t="n">
         <v>51.1</v>
@@ -30505,8 +30296,8 @@
       <c r="N443" s="1" t="n">
         <v>101.1157</v>
       </c>
-      <c r="O443" s="8" t="s">
-        <v>86</v>
+      <c r="O443" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P443" s="1" t="n">
         <v>50.5</v>
@@ -30574,8 +30365,8 @@
       <c r="N444" s="1" t="n">
         <v>101.0882</v>
       </c>
-      <c r="O444" s="8" t="s">
-        <v>87</v>
+      <c r="O444" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P444" s="1" t="n">
         <v>53</v>
@@ -30643,8 +30434,8 @@
       <c r="N445" s="1" t="n">
         <v>101.1292</v>
       </c>
-      <c r="O445" s="8" t="s">
-        <v>88</v>
+      <c r="O445" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P445" s="1" t="n">
         <v>55.2</v>
@@ -30712,8 +30503,8 @@
       <c r="N446" s="1" t="n">
         <v>101.2536</v>
       </c>
-      <c r="O446" s="9" t="s">
-        <v>89</v>
+      <c r="O446" s="10" t="n">
+        <v>14</v>
       </c>
       <c r="P446" s="1" t="n">
         <v>53.8</v>
@@ -30781,8 +30572,8 @@
       <c r="N447" s="1" t="n">
         <v>101.3538</v>
       </c>
-      <c r="O447" s="8" t="s">
-        <v>90</v>
+      <c r="O447" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P447" s="1" t="n">
         <v>53.1</v>
@@ -30850,8 +30641,8 @@
       <c r="N448" s="1" t="n">
         <v>101.4137</v>
       </c>
-      <c r="O448" s="8" t="s">
-        <v>91</v>
+      <c r="O448" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P448" s="1" t="n">
         <v>53.8</v>
@@ -30919,8 +30710,8 @@
       <c r="N449" s="1" t="n">
         <v>101.4811</v>
       </c>
-      <c r="O449" s="8" t="s">
-        <v>92</v>
+      <c r="O449" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P449" s="1" t="n">
         <v>53.7</v>
@@ -30988,8 +30779,8 @@
       <c r="N450" s="1" t="n">
         <v>101.5352</v>
       </c>
-      <c r="O450" s="8" t="s">
-        <v>93</v>
+      <c r="O450" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P450" s="1" t="n">
         <v>56.1</v>
@@ -31057,8 +30848,8 @@
       <c r="N451" s="1" t="n">
         <v>101.5923</v>
       </c>
-      <c r="O451" s="8" t="s">
-        <v>94</v>
+      <c r="O451" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P451" s="1" t="n">
         <v>54.9</v>
@@ -31126,8 +30917,8 @@
       <c r="N452" s="1" t="n">
         <v>101.6339</v>
       </c>
-      <c r="O452" s="8" t="s">
-        <v>95</v>
+      <c r="O452" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P452" s="1" t="n">
         <v>57.7</v>
@@ -31195,8 +30986,8 @@
       <c r="N453" s="1" t="n">
         <v>101.6405</v>
       </c>
-      <c r="O453" s="8" t="s">
-        <v>96</v>
+      <c r="O453" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P453" s="1" t="n">
         <v>56.3</v>
@@ -31264,8 +31055,8 @@
       <c r="N454" s="1" t="n">
         <v>101.6233</v>
       </c>
-      <c r="O454" s="8" t="s">
-        <v>97</v>
+      <c r="O454" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P454" s="1" t="n">
         <v>53.9</v>
@@ -31333,8 +31124,8 @@
       <c r="N455" s="1" t="n">
         <v>101.6264</v>
       </c>
-      <c r="O455" s="8" t="s">
-        <v>98</v>
+      <c r="O455" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P455" s="1" t="n">
         <v>56.4</v>
@@ -31402,8 +31193,8 @@
       <c r="N456" s="1" t="n">
         <v>101.6901</v>
       </c>
-      <c r="O456" s="8" t="s">
-        <v>99</v>
+      <c r="O456" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P456" s="1" t="n">
         <v>55.7</v>
@@ -31471,8 +31262,8 @@
       <c r="N457" s="1" t="n">
         <v>101.7553</v>
       </c>
-      <c r="O457" s="8" t="s">
-        <v>100</v>
+      <c r="O457" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P457" s="1" t="n">
         <v>54.5</v>
@@ -31540,8 +31331,8 @@
       <c r="N458" s="1" t="n">
         <v>101.8198</v>
       </c>
-      <c r="O458" s="9" t="s">
-        <v>101</v>
+      <c r="O458" s="10" t="n">
+        <v>14</v>
       </c>
       <c r="P458" s="1" t="n">
         <v>53.8</v>
@@ -31609,8 +31400,8 @@
       <c r="N459" s="1" t="n">
         <v>101.937</v>
       </c>
-      <c r="O459" s="8" t="s">
-        <v>102</v>
+      <c r="O459" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P459" s="1" t="n">
         <v>52.9</v>
@@ -31678,8 +31469,8 @@
       <c r="N460" s="1" t="n">
         <v>102.032</v>
       </c>
-      <c r="O460" s="8" t="s">
-        <v>103</v>
+      <c r="O460" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P460" s="1" t="n">
         <v>52.9</v>
@@ -31747,8 +31538,8 @@
       <c r="N461" s="1" t="n">
         <v>102.0595</v>
       </c>
-      <c r="O461" s="8" t="s">
-        <v>104</v>
+      <c r="O461" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P461" s="1" t="n">
         <v>52.2</v>
@@ -31816,8 +31607,8 @@
       <c r="N462" s="1" t="n">
         <v>102.0721</v>
       </c>
-      <c r="O462" s="8" t="s">
-        <v>105</v>
+      <c r="O462" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P462" s="1" t="n">
         <v>50.9</v>
@@ -31885,8 +31676,8 @@
       <c r="N463" s="1" t="n">
         <v>102.0475</v>
       </c>
-      <c r="O463" s="8" t="s">
-        <v>106</v>
+      <c r="O463" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P463" s="1" t="n">
         <v>48.9</v>
@@ -31954,8 +31745,8 @@
       <c r="N464" s="1" t="n">
         <v>101.9485</v>
       </c>
-      <c r="O464" s="8" t="s">
-        <v>107</v>
+      <c r="O464" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P464" s="1" t="n">
         <v>49.2</v>
@@ -32023,8 +31814,8 @@
       <c r="N465" s="1" t="n">
         <v>101.6839</v>
       </c>
-      <c r="O465" s="8" t="s">
-        <v>108</v>
+      <c r="O465" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P465" s="1" t="n">
         <v>49.3</v>
@@ -32092,8 +31883,8 @@
       <c r="N466" s="1" t="n">
         <v>101.2713</v>
       </c>
-      <c r="O466" s="8" t="s">
-        <v>109</v>
+      <c r="O466" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P466" s="1" t="n">
         <v>48.7</v>
@@ -32161,8 +31952,8 @@
       <c r="N467" s="1" t="n">
         <v>100.919</v>
       </c>
-      <c r="O467" s="8" t="s">
-        <v>110</v>
+      <c r="O467" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P467" s="1" t="n">
         <v>48.7</v>
@@ -32230,8 +32021,8 @@
       <c r="N468" s="1" t="n">
         <v>100.8267</v>
       </c>
-      <c r="O468" s="8" t="s">
-        <v>111</v>
+      <c r="O468" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P468" s="1" t="n">
         <v>48.2</v>
@@ -32299,8 +32090,8 @@
       <c r="N469" s="1" t="n">
         <v>100.8343</v>
       </c>
-      <c r="O469" s="8" t="s">
-        <v>112</v>
+      <c r="O469" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P469" s="1" t="n">
         <v>46.8</v>
@@ -32368,8 +32159,8 @@
       <c r="N470" s="1" t="n">
         <v>100.8158</v>
       </c>
-      <c r="O470" s="9" t="s">
-        <v>113</v>
+      <c r="O470" s="10" t="n">
+        <v>14</v>
       </c>
       <c r="P470" s="1" t="n">
         <v>50.6</v>
@@ -32437,8 +32228,8 @@
       <c r="N471" s="1" t="n">
         <v>100.7903</v>
       </c>
-      <c r="O471" s="8" t="s">
-        <v>114</v>
+      <c r="O471" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P471" s="1" t="n">
         <v>51.7</v>
@@ -32506,8 +32297,8 @@
       <c r="N472" s="1" t="n">
         <v>100.8035</v>
       </c>
-      <c r="O472" s="8" t="s">
-        <v>115</v>
+      <c r="O472" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P472" s="1" t="n">
         <v>52.4</v>
@@ -32575,8 +32366,8 @@
       <c r="N473" s="1" t="n">
         <v>100.8712</v>
       </c>
-      <c r="O473" s="8" t="s">
-        <v>116</v>
+      <c r="O473" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P473" s="1" t="n">
         <v>52.3</v>
@@ -32644,8 +32435,8 @@
       <c r="N474" s="1" t="n">
         <v>100.9662</v>
       </c>
-      <c r="O474" s="8" t="s">
-        <v>117</v>
+      <c r="O474" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P474" s="1" t="n">
         <v>54.3</v>
@@ -32713,8 +32504,8 @@
       <c r="N475" s="1" t="n">
         <v>101.1052</v>
       </c>
-      <c r="O475" s="8" t="s">
-        <v>118</v>
+      <c r="O475" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P475" s="1" t="n">
         <v>55.8</v>
@@ -32782,8 +32573,8 @@
       <c r="N476" s="1" t="n">
         <v>101.3185</v>
       </c>
-      <c r="O476" s="8" t="s">
-        <v>119</v>
+      <c r="O476" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P476" s="1" t="n">
         <v>53.6</v>
@@ -32851,8 +32642,8 @@
       <c r="N477" s="1" t="n">
         <v>101.5289</v>
       </c>
-      <c r="O477" s="8" t="s">
-        <v>120</v>
+      <c r="O477" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P477" s="1" t="n">
         <v>54.8</v>
@@ -32920,8 +32711,8 @@
       <c r="N478" s="1" t="n">
         <v>101.7586</v>
       </c>
-      <c r="O478" s="8" t="s">
-        <v>121</v>
+      <c r="O478" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P478" s="1" t="n">
         <v>57</v>
@@ -32989,8 +32780,8 @@
       <c r="N479" s="1" t="n">
         <v>101.8913</v>
       </c>
-      <c r="O479" s="8" t="s">
-        <v>122</v>
+      <c r="O479" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P479" s="1" t="n">
         <v>57.2</v>
@@ -33058,8 +32849,8 @@
       <c r="N480" s="1" t="n">
         <v>101.8814</v>
       </c>
-      <c r="O480" s="8" t="s">
-        <v>123</v>
+      <c r="O480" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P480" s="1" t="n">
         <v>58.1</v>
@@ -33127,8 +32918,8 @@
       <c r="N481" s="1" t="n">
         <v>101.8583</v>
       </c>
-      <c r="O481" s="8" t="s">
-        <v>124</v>
+      <c r="O481" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P481" s="1" t="n">
         <v>57.8</v>
@@ -33196,8 +32987,8 @@
       <c r="N482" s="1" t="n">
         <v>101.899</v>
       </c>
-      <c r="O482" s="9" t="s">
-        <v>125</v>
+      <c r="O482" s="10" t="n">
+        <v>13</v>
       </c>
       <c r="P482" s="1" t="n">
         <v>56.7</v>
@@ -33265,8 +33056,8 @@
       <c r="N483" s="1" t="n">
         <v>101.978</v>
       </c>
-      <c r="O483" s="8" t="s">
-        <v>126</v>
+      <c r="O483" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P483" s="1" t="n">
         <v>55.8</v>
@@ -33334,8 +33125,8 @@
       <c r="N484" s="1" t="n">
         <v>102.0638</v>
       </c>
-      <c r="O484" s="8" t="s">
-        <v>127</v>
+      <c r="O484" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P484" s="1" t="n">
         <v>54.9</v>
@@ -33403,8 +33194,8 @@
       <c r="N485" s="1" t="n">
         <v>102.1131</v>
       </c>
-      <c r="O485" s="8" t="s">
-        <v>128</v>
+      <c r="O485" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P485" s="1" t="n">
         <v>54.7</v>
@@ -33472,8 +33263,8 @@
       <c r="N486" s="1" t="n">
         <v>102.0212</v>
       </c>
-      <c r="O486" s="8" t="s">
-        <v>129</v>
+      <c r="O486" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P486" s="1" t="n">
         <v>53.2</v>
@@ -33541,8 +33332,8 @@
       <c r="N487" s="1" t="n">
         <v>101.9382</v>
       </c>
-      <c r="O487" s="8" t="s">
-        <v>130</v>
+      <c r="O487" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P487" s="1" t="n">
         <v>51.4</v>
@@ -33610,8 +33401,8 @@
       <c r="N488" s="1" t="n">
         <v>101.8677</v>
       </c>
-      <c r="O488" s="8" t="s">
-        <v>131</v>
+      <c r="O488" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P488" s="1" t="n">
         <v>52.5</v>
@@ -33679,8 +33470,8 @@
       <c r="N489" s="1" t="n">
         <v>101.8774</v>
       </c>
-      <c r="O489" s="8" t="s">
-        <v>132</v>
+      <c r="O489" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P489" s="1" t="n">
         <v>49.9</v>
@@ -33748,8 +33539,8 @@
       <c r="N490" s="1" t="n">
         <v>101.9237</v>
       </c>
-      <c r="O490" s="8" t="s">
-        <v>133</v>
+      <c r="O490" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P490" s="1" t="n">
         <v>49.7</v>
@@ -33817,8 +33608,8 @@
       <c r="N491" s="1" t="n">
         <v>101.9689</v>
       </c>
-      <c r="O491" s="8" t="s">
-        <v>134</v>
+      <c r="O491" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P491" s="1" t="n">
         <v>48.7</v>
@@ -33886,8 +33677,8 @@
       <c r="N492" s="1" t="n">
         <v>101.8718</v>
       </c>
-      <c r="O492" s="8" t="s">
-        <v>135</v>
+      <c r="O492" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P492" s="1" t="n">
         <v>48.5</v>
@@ -33955,8 +33746,8 @@
       <c r="N493" s="1" t="n">
         <v>101.7072</v>
       </c>
-      <c r="O493" s="8" t="s">
-        <v>136</v>
+      <c r="O493" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P493" s="1" t="n">
         <v>43.9</v>
@@ -34024,8 +33815,8 @@
       <c r="N494" s="1" t="n">
         <v>101.4343</v>
       </c>
-      <c r="O494" s="9" t="s">
-        <v>137</v>
+      <c r="O494" s="10" t="n">
+        <v>12</v>
       </c>
       <c r="P494" s="1" t="n">
         <v>42.3</v>
@@ -34093,8 +33884,8 @@
       <c r="N495" s="1" t="n">
         <v>101.1338</v>
       </c>
-      <c r="O495" s="8" t="s">
-        <v>138</v>
+      <c r="O495" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P495" s="1" t="n">
         <v>42.1</v>
@@ -34162,8 +33953,8 @@
       <c r="N496" s="1" t="n">
         <v>100.8611</v>
       </c>
-      <c r="O496" s="8" t="s">
-        <v>139</v>
+      <c r="O496" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P496" s="1" t="n">
         <v>43.1</v>
@@ -34231,8 +34022,8 @@
       <c r="N497" s="1" t="n">
         <v>100.6908</v>
       </c>
-      <c r="O497" s="8" t="s">
-        <v>140</v>
+      <c r="O497" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P497" s="1" t="n">
         <v>42.7</v>
@@ -34300,8 +34091,8 @@
       <c r="N498" s="1" t="n">
         <v>100.6149</v>
       </c>
-      <c r="O498" s="8" t="s">
-        <v>141</v>
+      <c r="O498" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P498" s="1" t="n">
         <v>41.3</v>
@@ -34369,8 +34160,8 @@
       <c r="N499" s="1" t="n">
         <v>100.4941</v>
       </c>
-      <c r="O499" s="8" t="s">
-        <v>142</v>
+      <c r="O499" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P499" s="1" t="n">
         <v>43.2</v>
@@ -34438,8 +34229,8 @@
       <c r="N500" s="1" t="n">
         <v>100.3069</v>
       </c>
-      <c r="O500" s="8" t="s">
-        <v>143</v>
+      <c r="O500" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P500" s="1" t="n">
         <v>43.5</v>
@@ -34507,8 +34298,8 @@
       <c r="N501" s="1" t="n">
         <v>99.9966</v>
       </c>
-      <c r="O501" s="8" t="s">
-        <v>144</v>
+      <c r="O501" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P501" s="1" t="n">
         <v>46.3</v>
@@ -34576,8 +34367,8 @@
       <c r="N502" s="1" t="n">
         <v>99.7313</v>
       </c>
-      <c r="O502" s="8" t="s">
-        <v>145</v>
+      <c r="O502" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P502" s="1" t="n">
         <v>46.2</v>
@@ -34645,8 +34436,8 @@
       <c r="N503" s="1" t="n">
         <v>99.51125</v>
       </c>
-      <c r="O503" s="8" t="s">
-        <v>146</v>
+      <c r="O503" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P503" s="1" t="n">
         <v>40.8</v>
@@ -34714,8 +34505,8 @@
       <c r="N504" s="1" t="n">
         <v>99.54347</v>
       </c>
-      <c r="O504" s="8" t="s">
-        <v>147</v>
+      <c r="O504" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P504" s="1" t="n">
         <v>44.1</v>
@@ -34783,8 +34574,8 @@
       <c r="N505" s="1" t="n">
         <v>99.87735</v>
       </c>
-      <c r="O505" s="8" t="s">
-        <v>148</v>
+      <c r="O505" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P505" s="1" t="n">
         <v>45.3</v>
@@ -34852,8 +34643,8 @@
       <c r="N506" s="1" t="n">
         <v>100.2902</v>
       </c>
-      <c r="O506" s="9" t="s">
-        <v>149</v>
+      <c r="O506" s="10" t="n">
+        <v>15</v>
       </c>
       <c r="P506" s="1" t="n">
         <v>47.5</v>
@@ -34921,8 +34712,8 @@
       <c r="N507" s="1" t="n">
         <v>100.556</v>
       </c>
-      <c r="O507" s="8" t="s">
-        <v>150</v>
+      <c r="O507" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P507" s="1" t="n">
         <v>50.7</v>
@@ -34990,8 +34781,8 @@
       <c r="N508" s="1" t="n">
         <v>100.6452</v>
       </c>
-      <c r="O508" s="8" t="s">
-        <v>151</v>
+      <c r="O508" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P508" s="1" t="n">
         <v>52.4</v>
@@ -35059,8 +34850,8 @@
       <c r="N509" s="1" t="n">
         <v>100.5585</v>
       </c>
-      <c r="O509" s="8" t="s">
-        <v>152</v>
+      <c r="O509" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P509" s="1" t="n">
         <v>52.4</v>
@@ -35128,8 +34919,8 @@
       <c r="N510" s="1" t="n">
         <v>100.3756</v>
       </c>
-      <c r="O510" s="8" t="s">
-        <v>153</v>
+      <c r="O510" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P510" s="1" t="n">
         <v>53.1</v>
@@ -35197,8 +34988,8 @@
       <c r="N511" s="1" t="n">
         <v>100.0854</v>
       </c>
-      <c r="O511" s="8" t="s">
-        <v>154</v>
+      <c r="O511" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P511" s="1" t="n">
         <v>53.6</v>
@@ -35266,8 +35057,8 @@
       <c r="N512" s="1" t="n">
         <v>99.83293</v>
       </c>
-      <c r="O512" s="8" t="s">
-        <v>155</v>
+      <c r="O512" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P512" s="1" t="n">
         <v>50.2</v>
@@ -35335,8 +35126,8 @@
       <c r="N513" s="1" t="n">
         <v>99.63454</v>
       </c>
-      <c r="O513" s="8" t="s">
-        <v>156</v>
+      <c r="O513" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P513" s="1" t="n">
         <v>50.3</v>
@@ -35404,8 +35195,8 @@
       <c r="N514" s="1" t="n">
         <v>99.48382</v>
       </c>
-      <c r="O514" s="8" t="s">
-        <v>157</v>
+      <c r="O514" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P514" s="1" t="n">
         <v>50.5</v>
@@ -35473,8 +35264,8 @@
       <c r="N515" s="1" t="n">
         <v>99.41309</v>
       </c>
-      <c r="O515" s="8" t="s">
-        <v>158</v>
+      <c r="O515" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P515" s="1" t="n">
         <v>49</v>
@@ -35542,8 +35333,8 @@
       <c r="N516" s="1" t="n">
         <v>99.36098</v>
       </c>
-      <c r="O516" s="8" t="s">
-        <v>159</v>
+      <c r="O516" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P516" s="1" t="n">
         <v>48.5</v>
@@ -35611,8 +35402,8 @@
       <c r="N517" s="1" t="n">
         <v>99.21574</v>
       </c>
-      <c r="O517" s="8" t="s">
-        <v>160</v>
+      <c r="O517" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P517" s="1" t="n">
         <v>51.6</v>
@@ -35680,8 +35471,8 @@
       <c r="N518" s="1" t="n">
         <v>98.97692</v>
       </c>
-      <c r="O518" s="9" t="s">
-        <v>161</v>
+      <c r="O518" s="10" t="n">
+        <v>14</v>
       </c>
       <c r="P518" s="1" t="n">
         <v>51.3</v>
@@ -35749,8 +35540,8 @@
       <c r="N519" s="1" t="n">
         <v>98.76368</v>
       </c>
-      <c r="O519" s="8" t="s">
-        <v>162</v>
+      <c r="O519" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P519" s="1" t="n">
         <v>48.8</v>
@@ -35818,8 +35609,8 @@
       <c r="N520" s="1" t="n">
         <v>98.64247</v>
       </c>
-      <c r="O520" s="8" t="s">
-        <v>163</v>
+      <c r="O520" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P520" s="1" t="n">
         <v>46.3</v>
@@ -35887,8 +35678,8 @@
       <c r="N521" s="1" t="n">
         <v>98.63027</v>
       </c>
-      <c r="O521" s="8" t="s">
-        <v>164</v>
+      <c r="O521" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P521" s="1" t="n">
         <v>46.1</v>
@@ -35956,8 +35747,8 @@
       <c r="N522" s="1" t="n">
         <v>98.73351</v>
       </c>
-      <c r="O522" s="8" t="s">
-        <v>165</v>
+      <c r="O522" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P522" s="1" t="n">
         <v>49</v>
@@ -36025,8 +35816,8 @@
       <c r="N523" s="1" t="n">
         <v>98.75021</v>
       </c>
-      <c r="O523" s="8" t="s">
-        <v>166</v>
+      <c r="O523" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P523" s="1" t="n">
         <v>49</v>
@@ -36094,8 +35885,8 @@
       <c r="N524" s="1" t="n">
         <v>98.76962</v>
       </c>
-      <c r="O524" s="8" t="s">
-        <v>167</v>
+      <c r="O524" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P524" s="1" t="n">
         <v>51</v>
@@ -36163,8 +35954,8 @@
       <c r="N525" s="1" t="n">
         <v>98.91804</v>
       </c>
-      <c r="O525" s="8" t="s">
-        <v>168</v>
+      <c r="O525" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P525" s="1" t="n">
         <v>53.2</v>
@@ -36232,8 +36023,8 @@
       <c r="N526" s="1" t="n">
         <v>99.00139</v>
       </c>
-      <c r="O526" s="8" t="s">
-        <v>169</v>
+      <c r="O526" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P526" s="1" t="n">
         <v>52.4</v>
@@ -36301,8 +36092,8 @@
       <c r="N527" s="1" t="n">
         <v>99.06934</v>
       </c>
-      <c r="O527" s="8" t="s">
-        <v>170</v>
+      <c r="O527" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P527" s="1" t="n">
         <v>55.2</v>
@@ -36370,8 +36161,8 @@
       <c r="N528" s="1" t="n">
         <v>99.19486</v>
       </c>
-      <c r="O528" s="8" t="s">
-        <v>171</v>
+      <c r="O528" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P528" s="1" t="n">
         <v>58.4</v>
@@ -36439,8 +36230,8 @@
       <c r="N529" s="1" t="n">
         <v>99.31502</v>
       </c>
-      <c r="O529" s="8" t="s">
-        <v>172</v>
+      <c r="O529" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P529" s="1" t="n">
         <v>60.1</v>
@@ -36508,8 +36299,8 @@
       <c r="N530" s="1" t="n">
         <v>99.42509</v>
       </c>
-      <c r="O530" s="9" t="s">
-        <v>173</v>
+      <c r="O530" s="10" t="n">
+        <v>15</v>
       </c>
       <c r="P530" s="1" t="n">
         <v>60.8</v>
@@ -36577,8 +36368,8 @@
       <c r="N531" s="1" t="n">
         <v>99.56805</v>
       </c>
-      <c r="O531" s="8" t="s">
-        <v>174</v>
+      <c r="O531" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P531" s="1" t="n">
         <v>59.9</v>
@@ -36646,8 +36437,8 @@
       <c r="N532" s="1" t="n">
         <v>99.57834</v>
       </c>
-      <c r="O532" s="8" t="s">
-        <v>175</v>
+      <c r="O532" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P532" s="1" t="n">
         <v>60.6</v>
@@ -36715,8 +36506,8 @@
       <c r="N533" s="1" t="n">
         <v>99.59657</v>
       </c>
-      <c r="O533" s="8" t="s">
-        <v>176</v>
+      <c r="O533" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P533" s="1" t="n">
         <v>60.6</v>
@@ -36784,8 +36575,8 @@
       <c r="N534" s="1" t="n">
         <v>99.65734</v>
       </c>
-      <c r="O534" s="8" t="s">
-        <v>177</v>
+      <c r="O534" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P534" s="1" t="n">
         <v>61.4</v>
@@ -36853,8 +36644,8 @@
       <c r="N535" s="1" t="n">
         <v>99.85371</v>
       </c>
-      <c r="O535" s="8" t="s">
-        <v>178</v>
+      <c r="O535" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P535" s="1" t="n">
         <v>60.5</v>
@@ -36922,8 +36713,8 @@
       <c r="N536" s="1" t="n">
         <v>100.1211</v>
       </c>
-      <c r="O536" s="8" t="s">
-        <v>179</v>
+      <c r="O536" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P536" s="1" t="n">
         <v>59.9</v>
@@ -36991,8 +36782,8 @@
       <c r="N537" s="1" t="n">
         <v>100.315</v>
       </c>
-      <c r="O537" s="8" t="s">
-        <v>180</v>
+      <c r="O537" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P537" s="1" t="n">
         <v>58.5</v>
@@ -37060,8 +36851,8 @@
       <c r="N538" s="1" t="n">
         <v>100.2906</v>
       </c>
-      <c r="O538" s="8" t="s">
-        <v>181</v>
+      <c r="O538" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P538" s="1" t="n">
         <v>57.4</v>
@@ -37129,8 +36920,8 @@
       <c r="N539" s="1" t="n">
         <v>100.0743</v>
       </c>
-      <c r="O539" s="8" t="s">
-        <v>182</v>
+      <c r="O539" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P539" s="1" t="n">
         <v>56.3</v>
@@ -37198,8 +36989,8 @@
       <c r="N540" s="1" t="n">
         <v>99.89745</v>
       </c>
-      <c r="O540" s="8" t="s">
-        <v>183</v>
+      <c r="O540" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P540" s="1" t="n">
         <v>56.2</v>
@@ -37267,8 +37058,8 @@
       <c r="N541" s="1" t="n">
         <v>99.80025</v>
       </c>
-      <c r="O541" s="8" t="s">
-        <v>184</v>
+      <c r="O541" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P541" s="1" t="n">
         <v>57.2</v>
@@ -37336,8 +37127,8 @@
       <c r="N542" s="1" t="n">
         <v>99.89114</v>
       </c>
-      <c r="O542" s="9" t="s">
-        <v>185</v>
+      <c r="O542" s="10" t="n">
+        <v>13</v>
       </c>
       <c r="P542" s="1" t="n">
         <v>56.8</v>
@@ -37405,8 +37196,8 @@
       <c r="N543" s="1" t="n">
         <v>100.0511</v>
       </c>
-      <c r="O543" s="8" t="s">
-        <v>186</v>
+      <c r="O543" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P543" s="1" t="n">
         <v>55.5</v>
@@ -37474,8 +37265,8 @@
       <c r="N544" s="1" t="n">
         <v>100.1899</v>
       </c>
-      <c r="O544" s="8" t="s">
-        <v>187</v>
+      <c r="O544" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P544" s="1" t="n">
         <v>55.2</v>
@@ -37543,8 +37334,8 @@
       <c r="N545" s="1" t="n">
         <v>100.2321</v>
       </c>
-      <c r="O545" s="8" t="s">
-        <v>188</v>
+      <c r="O545" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P545" s="1" t="n">
         <v>52.2</v>
@@ -37612,8 +37403,8 @@
       <c r="N546" s="1" t="n">
         <v>100.0701</v>
       </c>
-      <c r="O546" s="8" t="s">
-        <v>189</v>
+      <c r="O546" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P546" s="1" t="n">
         <v>50.8</v>
@@ -37681,8 +37472,8 @@
       <c r="N547" s="1" t="n">
         <v>99.91417</v>
       </c>
-      <c r="O547" s="8" t="s">
-        <v>190</v>
+      <c r="O547" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P547" s="1" t="n">
         <v>52.4</v>
@@ -37750,8 +37541,8 @@
       <c r="N548" s="1" t="n">
         <v>99.85175</v>
       </c>
-      <c r="O548" s="8" t="s">
-        <v>191</v>
+      <c r="O548" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P548" s="1" t="n">
         <v>52.8</v>
@@ -37819,8 +37610,8 @@
       <c r="N549" s="1" t="n">
         <v>99.84821</v>
       </c>
-      <c r="O549" s="8" t="s">
-        <v>192</v>
+      <c r="O549" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P549" s="1" t="n">
         <v>52.4</v>
@@ -37888,8 +37679,8 @@
       <c r="N550" s="1" t="n">
         <v>99.95531</v>
       </c>
-      <c r="O550" s="8" t="s">
-        <v>193</v>
+      <c r="O550" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P550" s="1" t="n">
         <v>56.8</v>
@@ -37957,8 +37748,8 @@
       <c r="N551" s="1" t="n">
         <v>100.1321</v>
       </c>
-      <c r="O551" s="8" t="s">
-        <v>194</v>
+      <c r="O551" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P551" s="1" t="n">
         <v>57.2</v>
@@ -38026,8 +37817,8 @@
       <c r="N552" s="1" t="n">
         <v>100.3204</v>
       </c>
-      <c r="O552" s="8" t="s">
-        <v>195</v>
+      <c r="O552" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P552" s="1" t="n">
         <v>56.7</v>
@@ -38095,8 +37886,8 @@
       <c r="N553" s="1" t="n">
         <v>100.5514</v>
       </c>
-      <c r="O553" s="8" t="s">
-        <v>196</v>
+      <c r="O553" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P553" s="1" t="n">
         <v>55.1</v>
@@ -38164,8 +37955,8 @@
       <c r="N554" s="1" t="n">
         <v>100.7025</v>
       </c>
-      <c r="O554" s="9" t="s">
-        <v>197</v>
+      <c r="O554" s="10" t="n">
+        <v>13</v>
       </c>
       <c r="P554" s="1" t="n">
         <v>55</v>
@@ -38233,8 +38024,8 @@
       <c r="N555" s="1" t="n">
         <v>100.8049</v>
       </c>
-      <c r="O555" s="8" t="s">
-        <v>198</v>
+      <c r="O555" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P555" s="1" t="n">
         <v>55.8</v>
@@ -38302,8 +38093,8 @@
       <c r="N556" s="1" t="n">
         <v>100.9021</v>
       </c>
-      <c r="O556" s="8" t="s">
-        <v>199</v>
+      <c r="O556" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P556" s="1" t="n">
         <v>54.3</v>
@@ -38371,8 +38162,8 @@
       <c r="N557" s="1" t="n">
         <v>100.9839</v>
       </c>
-      <c r="O557" s="8" t="s">
-        <v>200</v>
+      <c r="O557" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P557" s="1" t="n">
         <v>55.2</v>
@@ -38440,8 +38231,8 @@
       <c r="N558" s="1" t="n">
         <v>101.1632</v>
       </c>
-      <c r="O558" s="8" t="s">
-        <v>201</v>
+      <c r="O558" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P558" s="1" t="n">
         <v>53.7</v>
@@ -38509,8 +38300,8 @@
       <c r="N559" s="1" t="n">
         <v>101.3839</v>
       </c>
-      <c r="O559" s="8" t="s">
-        <v>202</v>
+      <c r="O559" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P559" s="1" t="n">
         <v>52</v>
@@ -38578,8 +38369,8 @@
       <c r="N560" s="1" t="n">
         <v>101.4885</v>
       </c>
-      <c r="O560" s="8" t="s">
-        <v>203</v>
+      <c r="O560" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P560" s="1" t="n">
         <v>53</v>
@@ -38647,8 +38438,8 @@
       <c r="N561" s="1" t="n">
         <v>101.5728</v>
       </c>
-      <c r="O561" s="8" t="s">
-        <v>204</v>
+      <c r="O561" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P561" s="1" t="n">
         <v>53.7</v>
@@ -38716,8 +38507,8 @@
       <c r="N562" s="1" t="n">
         <v>101.6617</v>
       </c>
-      <c r="O562" s="8" t="s">
-        <v>205</v>
+      <c r="O562" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P562" s="1" t="n">
         <v>52.2</v>
@@ -38785,8 +38576,8 @@
       <c r="N563" s="1" t="n">
         <v>101.7262</v>
       </c>
-      <c r="O563" s="8" t="s">
-        <v>206</v>
+      <c r="O563" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P563" s="1" t="n">
         <v>51.4</v>
@@ -38854,8 +38645,8 @@
       <c r="N564" s="1" t="n">
         <v>101.7033</v>
       </c>
-      <c r="O564" s="8" t="s">
-        <v>207</v>
+      <c r="O564" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P564" s="1" t="n">
         <v>50.3</v>
@@ -38923,8 +38714,8 @@
       <c r="N565" s="1" t="n">
         <v>101.7334</v>
       </c>
-      <c r="O565" s="8" t="s">
-        <v>208</v>
+      <c r="O565" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P565" s="1" t="n">
         <v>51.4</v>
@@ -38992,8 +38783,8 @@
       <c r="N566" s="1" t="n">
         <v>101.7631</v>
       </c>
-      <c r="O566" s="9" t="s">
-        <v>209</v>
+      <c r="O566" s="10" t="n">
+        <v>12</v>
       </c>
       <c r="P566" s="1" t="n">
         <v>49.5</v>
@@ -39061,8 +38852,8 @@
       <c r="N567" s="1" t="n">
         <v>101.7065</v>
       </c>
-      <c r="O567" s="8" t="s">
-        <v>210</v>
+      <c r="O567" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P567" s="1" t="n">
         <v>51.9</v>
@@ -39130,8 +38921,8 @@
       <c r="N568" s="1" t="n">
         <v>101.6349</v>
       </c>
-      <c r="O568" s="8" t="s">
-        <v>211</v>
+      <c r="O568" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P568" s="1" t="n">
         <v>50.7</v>
@@ -39199,8 +38990,8 @@
       <c r="N569" s="1" t="n">
         <v>101.5869</v>
       </c>
-      <c r="O569" s="8" t="s">
-        <v>212</v>
+      <c r="O569" s="8" t="n">
+        <v>16</v>
       </c>
       <c r="P569" s="1" t="n">
         <v>52.6</v>
@@ -39268,8 +39059,8 @@
       <c r="N570" s="1" t="n">
         <v>101.6304</v>
       </c>
-      <c r="O570" s="8" t="s">
-        <v>213</v>
+      <c r="O570" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P570" s="1" t="n">
         <v>52.5</v>
@@ -39337,8 +39128,8 @@
       <c r="N571" s="1" t="n">
         <v>101.747</v>
       </c>
-      <c r="O571" s="8" t="s">
-        <v>214</v>
+      <c r="O571" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P571" s="1" t="n">
         <v>52.6</v>
@@ -39406,8 +39197,8 @@
       <c r="N572" s="1" t="n">
         <v>101.7421</v>
       </c>
-      <c r="O572" s="8" t="s">
-        <v>215</v>
+      <c r="O572" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P572" s="1" t="n">
         <v>52.4</v>
@@ -39475,8 +39266,8 @@
       <c r="N573" s="1" t="n">
         <v>101.5488</v>
       </c>
-      <c r="O573" s="8" t="s">
-        <v>216</v>
+      <c r="O573" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P573" s="1" t="n">
         <v>50.9</v>
@@ -39544,8 +39335,8 @@
       <c r="N574" s="1" t="n">
         <v>101.2327</v>
       </c>
-      <c r="O574" s="8" t="s">
-        <v>217</v>
+      <c r="O574" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P574" s="1" t="n">
         <v>51</v>
@@ -39613,8 +39404,8 @@
       <c r="N575" s="1" t="n">
         <v>101.0482</v>
       </c>
-      <c r="O575" s="8" t="s">
-        <v>218</v>
+      <c r="O575" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P575" s="1" t="n">
         <v>51.1</v>
@@ -39682,8 +39473,8 @@
       <c r="N576" s="1" t="n">
         <v>100.9507</v>
       </c>
-      <c r="O576" s="8" t="s">
-        <v>219</v>
+      <c r="O576" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P576" s="1" t="n">
         <v>50.5</v>
@@ -39751,8 +39542,8 @@
       <c r="N577" s="1" t="n">
         <v>100.8547</v>
       </c>
-      <c r="O577" s="8" t="s">
-        <v>220</v>
+      <c r="O577" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P577" s="1" t="n">
         <v>49</v>
@@ -39820,8 +39611,8 @@
       <c r="N578" s="1" t="n">
         <v>100.7031</v>
       </c>
-      <c r="O578" s="9" t="s">
-        <v>221</v>
+      <c r="O578" s="10" t="n">
+        <v>15</v>
       </c>
       <c r="P578" s="1" t="n">
         <v>50.3</v>
@@ -39889,8 +39680,8 @@
       <c r="N579" s="1" t="n">
         <v>100.5089</v>
       </c>
-      <c r="O579" s="8" t="s">
-        <v>222</v>
+      <c r="O579" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P579" s="1" t="n">
         <v>47.6</v>
@@ -39958,8 +39749,8 @@
       <c r="N580" s="1" t="n">
         <v>100.3517</v>
       </c>
-      <c r="O580" s="8" t="s">
-        <v>223</v>
+      <c r="O580" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P580" s="1" t="n">
         <v>48.3</v>
@@ -40027,8 +39818,8 @@
       <c r="N581" s="1" t="n">
         <v>100.1877</v>
       </c>
-      <c r="O581" s="8" t="s">
-        <v>224</v>
+      <c r="O581" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P581" s="1" t="n">
         <v>48.8</v>
@@ -40096,8 +39887,8 @@
       <c r="N582" s="1" t="n">
         <v>100.0527</v>
       </c>
-      <c r="O582" s="8" t="s">
-        <v>225</v>
+      <c r="O582" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P582" s="1" t="n">
         <v>48.8</v>
@@ -40165,8 +39956,8 @@
       <c r="N583" s="1" t="n">
         <v>99.92503</v>
       </c>
-      <c r="O583" s="8" t="s">
-        <v>226</v>
+      <c r="O583" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P583" s="1" t="n">
         <v>49.8</v>
@@ -40234,8 +40025,8 @@
       <c r="N584" s="1" t="n">
         <v>99.7964</v>
       </c>
-      <c r="O584" s="8" t="s">
-        <v>227</v>
+      <c r="O584" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P584" s="1" t="n">
         <v>50</v>
@@ -40303,8 +40094,8 @@
       <c r="N585" s="1" t="n">
         <v>99.72638</v>
       </c>
-      <c r="O585" s="8" t="s">
-        <v>228</v>
+      <c r="O585" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P585" s="1" t="n">
         <v>49.2</v>
@@ -40372,8 +40163,8 @@
       <c r="N586" s="1" t="n">
         <v>99.5875</v>
       </c>
-      <c r="O586" s="8" t="s">
-        <v>229</v>
+      <c r="O586" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P586" s="1" t="n">
         <v>44.8</v>
@@ -40441,8 +40232,8 @@
       <c r="N587" s="1" t="n">
         <v>99.20833</v>
       </c>
-      <c r="O587" s="8" t="s">
-        <v>230</v>
+      <c r="O587" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P587" s="1" t="n">
         <v>38.9</v>
@@ -40510,8 +40301,8 @@
       <c r="N588" s="1" t="n">
         <v>98.7681</v>
       </c>
-      <c r="O588" s="8" t="s">
-        <v>231</v>
+      <c r="O588" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P588" s="1" t="n">
         <v>36.5</v>
@@ -40579,8 +40370,8 @@
       <c r="N589" s="1" t="n">
         <v>98.39035</v>
       </c>
-      <c r="O589" s="8" t="s">
-        <v>232</v>
+      <c r="O589" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P589" s="1" t="n">
         <v>33.1</v>
@@ -40648,8 +40439,8 @@
       <c r="N590" s="1" t="n">
         <v>98.12637</v>
       </c>
-      <c r="O590" s="9" t="s">
-        <v>233</v>
+      <c r="O590" s="10" t="n">
+        <v>14</v>
       </c>
       <c r="P590" s="1" t="n">
         <v>34.9</v>
@@ -40717,8 +40508,8 @@
       <c r="N591" s="1" t="n">
         <v>97.94022</v>
       </c>
-      <c r="O591" s="8" t="s">
-        <v>234</v>
+      <c r="O591" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P591" s="1" t="n">
         <v>35.5</v>
@@ -40786,8 +40577,8 @@
       <c r="N592" s="1" t="n">
         <v>97.93621</v>
       </c>
-      <c r="O592" s="8" t="s">
-        <v>235</v>
+      <c r="O592" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P592" s="1" t="n">
         <v>36</v>
@@ -40855,8 +40646,8 @@
       <c r="N593" s="1" t="n">
         <v>98.24353</v>
       </c>
-      <c r="O593" s="8" t="s">
-        <v>236</v>
+      <c r="O593" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P593" s="1" t="n">
         <v>39.5</v>
@@ -40924,8 +40715,8 @@
       <c r="N594" s="1" t="n">
         <v>98.57272</v>
       </c>
-      <c r="O594" s="8" t="s">
-        <v>237</v>
+      <c r="O594" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P594" s="1" t="n">
         <v>41.7</v>
@@ -40993,8 +40784,8 @@
       <c r="N595" s="1" t="n">
         <v>98.73048</v>
       </c>
-      <c r="O595" s="8" t="s">
-        <v>238</v>
+      <c r="O595" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P595" s="1" t="n">
         <v>45.8</v>
@@ -41062,8 +40853,8 @@
       <c r="N596" s="1" t="n">
         <v>98.89325</v>
       </c>
-      <c r="O596" s="8" t="s">
-        <v>239</v>
+      <c r="O596" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P596" s="1" t="n">
         <v>49.9</v>
@@ -41131,8 +40922,8 @@
       <c r="N597" s="1" t="n">
         <v>99.15726</v>
       </c>
-      <c r="O597" s="8" t="s">
-        <v>240</v>
+      <c r="O597" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P597" s="1" t="n">
         <v>53.5</v>
@@ -41200,8 +40991,8 @@
       <c r="N598" s="1" t="n">
         <v>99.40311</v>
       </c>
-      <c r="O598" s="8" t="s">
-        <v>241</v>
+      <c r="O598" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P598" s="1" t="n">
         <v>54.4</v>
@@ -41269,8 +41060,8 @@
       <c r="N599" s="1" t="n">
         <v>99.56155</v>
       </c>
-      <c r="O599" s="8" t="s">
-        <v>242</v>
+      <c r="O599" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P599" s="1" t="n">
         <v>56</v>
@@ -41338,8 +41129,8 @@
       <c r="N600" s="1" t="n">
         <v>99.81522</v>
       </c>
-      <c r="O600" s="8" t="s">
-        <v>243</v>
+      <c r="O600" s="8" t="n">
+        <v>16</v>
       </c>
       <c r="P600" s="1" t="n">
         <v>54.4</v>
@@ -41407,8 +41198,8 @@
       <c r="N601" s="1" t="n">
         <v>100.0748</v>
       </c>
-      <c r="O601" s="8" t="s">
-        <v>244</v>
+      <c r="O601" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P601" s="1" t="n">
         <v>55.3</v>
@@ -41476,8 +41267,8 @@
       <c r="N602" s="1" t="n">
         <v>100.2279</v>
       </c>
-      <c r="O602" s="9" t="s">
-        <v>245</v>
+      <c r="O602" s="10" t="n">
+        <v>14</v>
       </c>
       <c r="P602" s="1" t="n">
         <v>57.2</v>
@@ -41545,8 +41336,8 @@
       <c r="N603" s="1" t="n">
         <v>100.2354</v>
       </c>
-      <c r="O603" s="8" t="s">
-        <v>246</v>
+      <c r="O603" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P603" s="1" t="n">
         <v>55.8</v>
@@ -41614,8 +41405,8 @@
       <c r="N604" s="1" t="n">
         <v>100.1795</v>
       </c>
-      <c r="O604" s="8" t="s">
-        <v>247</v>
+      <c r="O604" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P604" s="1" t="n">
         <v>58.8</v>
@@ -41683,8 +41474,8 @@
       <c r="N605" s="1" t="n">
         <v>100.0739</v>
       </c>
-      <c r="O605" s="8" t="s">
-        <v>248</v>
+      <c r="O605" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P605" s="1" t="n">
         <v>58.1</v>
@@ -41752,8 +41543,8 @@
       <c r="N606" s="1" t="n">
         <v>100.0651</v>
       </c>
-      <c r="O606" s="8" t="s">
-        <v>249</v>
+      <c r="O606" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P606" s="1" t="n">
         <v>58.3</v>
@@ -41821,8 +41612,8 @@
       <c r="N607" s="1" t="n">
         <v>100.0909</v>
       </c>
-      <c r="O607" s="8" t="s">
-        <v>250</v>
+      <c r="O607" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P607" s="1" t="n">
         <v>56.4</v>
@@ -41890,8 +41681,8 @@
       <c r="N608" s="1" t="n">
         <v>100.1998</v>
       </c>
-      <c r="O608" s="8" t="s">
-        <v>251</v>
+      <c r="O608" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P608" s="1" t="n">
         <v>56.4</v>
@@ -41959,8 +41750,8 @@
       <c r="N609" s="1" t="n">
         <v>100.3146</v>
       </c>
-      <c r="O609" s="8" t="s">
-        <v>252</v>
+      <c r="O609" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P609" s="1" t="n">
         <v>58</v>
@@ -42028,8 +41819,8 @@
       <c r="N610" s="1" t="n">
         <v>100.4166</v>
       </c>
-      <c r="O610" s="8" t="s">
-        <v>253</v>
+      <c r="O610" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P610" s="1" t="n">
         <v>56.3</v>
@@ -42097,8 +41888,8 @@
       <c r="N611" s="1" t="n">
         <v>100.5033</v>
       </c>
-      <c r="O611" s="8" t="s">
-        <v>254</v>
+      <c r="O611" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P611" s="1" t="n">
         <v>57.7</v>
@@ -42166,8 +41957,8 @@
       <c r="N612" s="1" t="n">
         <v>100.532</v>
       </c>
-      <c r="O612" s="8" t="s">
-        <v>255</v>
+      <c r="O612" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P612" s="1" t="n">
         <v>57.6</v>
@@ -42235,8 +42026,8 @@
       <c r="N613" s="1" t="n">
         <v>100.553</v>
       </c>
-      <c r="O613" s="8" t="s">
-        <v>256</v>
+      <c r="O613" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P613" s="1" t="n">
         <v>57.5</v>
@@ -42304,8 +42095,8 @@
       <c r="N614" s="1" t="n">
         <v>100.7441</v>
       </c>
-      <c r="O614" s="9" t="s">
-        <v>257</v>
+      <c r="O614" s="10" t="n">
+        <v>14</v>
       </c>
       <c r="P614" s="1" t="n">
         <v>59.3</v>
@@ -42373,8 +42164,8 @@
       <c r="N615" s="1" t="n">
         <v>100.9241</v>
       </c>
-      <c r="O615" s="8" t="s">
-        <v>258</v>
+      <c r="O615" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P615" s="1" t="n">
         <v>59.9</v>
@@ -42442,8 +42233,8 @@
       <c r="N616" s="1" t="n">
         <v>100.9189</v>
       </c>
-      <c r="O616" s="8" t="s">
-        <v>259</v>
+      <c r="O616" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P616" s="1" t="n">
         <v>59.2</v>
@@ -42511,8 +42302,8 @@
       <c r="N617" s="1" t="n">
         <v>100.7833</v>
       </c>
-      <c r="O617" s="8" t="s">
-        <v>260</v>
+      <c r="O617" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P617" s="1" t="n">
         <v>59.4</v>
@@ -42580,8 +42371,8 @@
       <c r="N618" s="1" t="n">
         <v>100.6145</v>
       </c>
-      <c r="O618" s="8" t="s">
-        <v>261</v>
+      <c r="O618" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P618" s="1" t="n">
         <v>53.9</v>
@@ -42649,8 +42440,8 @@
       <c r="N619" s="1" t="n">
         <v>100.4317</v>
       </c>
-      <c r="O619" s="8" t="s">
-        <v>262</v>
+      <c r="O619" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P619" s="1" t="n">
         <v>56.2</v>
@@ -42718,8 +42509,8 @@
       <c r="N620" s="1" t="n">
         <v>100.2082</v>
       </c>
-      <c r="O620" s="8" t="s">
-        <v>263</v>
+      <c r="O620" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P620" s="1" t="n">
         <v>52.9</v>
@@ -42787,8 +42578,8 @@
       <c r="N621" s="1" t="n">
         <v>99.76163</v>
       </c>
-      <c r="O621" s="8" t="s">
-        <v>264</v>
+      <c r="O621" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P621" s="1" t="n">
         <v>52.8</v>
@@ -42856,8 +42647,8 @@
       <c r="N622" s="1" t="n">
         <v>99.1693</v>
       </c>
-      <c r="O622" s="8" t="s">
-        <v>265</v>
+      <c r="O622" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P622" s="1" t="n">
         <v>52.7</v>
@@ -42925,8 +42716,8 @@
       <c r="N623" s="1" t="n">
         <v>98.63947</v>
       </c>
-      <c r="O623" s="8" t="s">
-        <v>266</v>
+      <c r="O623" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P623" s="1" t="n">
         <v>51.4</v>
@@ -42994,8 +42785,8 @@
       <c r="N624" s="1" t="n">
         <v>98.26318</v>
       </c>
-      <c r="O624" s="8" t="s">
-        <v>267</v>
+      <c r="O624" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P624" s="1" t="n">
         <v>51.5</v>
@@ -43063,8 +42854,8 @@
       <c r="N625" s="1" t="n">
         <v>98.06005</v>
       </c>
-      <c r="O625" s="8" t="s">
-        <v>268</v>
+      <c r="O625" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P625" s="1" t="n">
         <v>52.6</v>
@@ -43132,8 +42923,8 @@
       <c r="N626" s="1" t="n">
         <v>98.03482</v>
       </c>
-      <c r="O626" s="9" t="s">
-        <v>269</v>
+      <c r="O626" s="10" t="n">
+        <v>12</v>
       </c>
       <c r="P626" s="1" t="n">
         <v>53.1</v>
@@ -43201,8 +42992,8 @@
       <c r="N627" s="1" t="n">
         <v>98.10645</v>
       </c>
-      <c r="O627" s="8" t="s">
-        <v>270</v>
+      <c r="O627" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P627" s="1" t="n">
         <v>53.5</v>
@@ -43270,8 +43061,8 @@
       <c r="N628" s="1" t="n">
         <v>98.18818</v>
       </c>
-      <c r="O628" s="8" t="s">
-        <v>271</v>
+      <c r="O628" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P628" s="1" t="n">
         <v>53.6</v>
@@ -43339,8 +43130,8 @@
       <c r="N629" s="1" t="n">
         <v>98.27113</v>
       </c>
-      <c r="O629" s="8" t="s">
-        <v>272</v>
+      <c r="O629" s="8" t="n">
+        <v>16</v>
       </c>
       <c r="P629" s="1" t="n">
         <v>54.3</v>
@@ -43408,8 +43199,8 @@
       <c r="N630" s="1" t="n">
         <v>98.21474</v>
       </c>
-      <c r="O630" s="8" t="s">
-        <v>273</v>
+      <c r="O630" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P630" s="1" t="n">
         <v>53.4</v>
@@ -43477,8 +43268,8 @@
       <c r="N631" s="1" t="n">
         <v>98.26671</v>
       </c>
-      <c r="O631" s="8" t="s">
-        <v>274</v>
+      <c r="O631" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P631" s="1" t="n">
         <v>50.7</v>
@@ -43546,8 +43337,8 @@
       <c r="N632" s="1" t="n">
         <v>98.46163</v>
       </c>
-      <c r="O632" s="8" t="s">
-        <v>275</v>
+      <c r="O632" s="8" t="n">
+        <v>16</v>
       </c>
       <c r="P632" s="1" t="n">
         <v>50</v>
@@ -43615,8 +43406,8 @@
       <c r="N633" s="1" t="n">
         <v>98.60564</v>
       </c>
-      <c r="O633" s="8" t="s">
-        <v>276</v>
+      <c r="O633" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P633" s="1" t="n">
         <v>50.7</v>
@@ -43684,8 +43475,8 @@
       <c r="N634" s="1" t="n">
         <v>98.64779</v>
       </c>
-      <c r="O634" s="8" t="s">
-        <v>277</v>
+      <c r="O634" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P634" s="1" t="n">
         <v>51.8</v>
@@ -43753,8 +43544,8 @@
       <c r="N635" s="1" t="n">
         <v>98.51775</v>
       </c>
-      <c r="O635" s="8" t="s">
-        <v>278</v>
+      <c r="O635" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P635" s="1" t="n">
         <v>50.5</v>
@@ -43822,8 +43613,8 @@
       <c r="N636" s="1" t="n">
         <v>98.16592</v>
       </c>
-      <c r="O636" s="8" t="s">
-        <v>279</v>
+      <c r="O636" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P636" s="1" t="n">
         <v>48.8</v>
@@ -43891,8 +43682,8 @@
       <c r="N637" s="1" t="n">
         <v>97.94003</v>
       </c>
-      <c r="O637" s="8" t="s">
-        <v>280</v>
+      <c r="O637" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P637" s="1" t="n">
         <v>49.8</v>
@@ -43960,8 +43751,8 @@
       <c r="N638" s="1" t="n">
         <v>97.85918</v>
       </c>
-      <c r="O638" s="9" t="s">
-        <v>281</v>
+      <c r="O638" s="10" t="n">
+        <v>15</v>
       </c>
       <c r="P638" s="1" t="n">
         <v>52.9</v>
@@ -44029,8 +43820,8 @@
       <c r="N639" s="1" t="n">
         <v>97.794</v>
       </c>
-      <c r="O639" s="8" t="s">
-        <v>282</v>
+      <c r="O639" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P639" s="1" t="n">
         <v>54.6</v>
@@ -44098,8 +43889,8 @@
       <c r="N640" s="1" t="n">
         <v>97.94946</v>
       </c>
-      <c r="O640" s="8" t="s">
-        <v>283</v>
+      <c r="O640" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P640" s="1" t="n">
         <v>52.5</v>
@@ -44167,8 +43958,8 @@
       <c r="N641" s="1" t="n">
         <v>98.21754</v>
       </c>
-      <c r="O641" s="8" t="s">
-        <v>284</v>
+      <c r="O641" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P641" s="1" t="n">
         <v>50.4</v>
@@ -44236,8 +44027,8 @@
       <c r="N642" s="1" t="n">
         <v>98.40544</v>
       </c>
-      <c r="O642" s="8" t="s">
-        <v>285</v>
+      <c r="O642" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P642" s="1" t="n">
         <v>50.2</v>
@@ -44305,8 +44096,8 @@
       <c r="N643" s="1" t="n">
         <v>98.44245</v>
       </c>
-      <c r="O643" s="8" t="s">
-        <v>286</v>
+      <c r="O643" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P643" s="1" t="n">
         <v>52.3</v>
@@ -44374,8 +44165,8 @@
       <c r="N644" s="1" t="n">
         <v>98.49353</v>
       </c>
-      <c r="O644" s="8" t="s">
-        <v>287</v>
+      <c r="O644" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P644" s="1" t="n">
         <v>53.8</v>
@@ -44443,8 +44234,8 @@
       <c r="N645" s="1" t="n">
         <v>98.73045</v>
       </c>
-      <c r="O645" s="8" t="s">
-        <v>288</v>
+      <c r="O645" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P645" s="1" t="n">
         <v>55.6</v>
@@ -44512,8 +44303,8 @@
       <c r="N646" s="1" t="n">
         <v>98.97926</v>
       </c>
-      <c r="O646" s="8" t="s">
-        <v>289</v>
+      <c r="O646" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P646" s="1" t="n">
         <v>55.4</v>
@@ -44581,8 +44372,8 @@
       <c r="N647" s="1" t="n">
         <v>99.34205</v>
       </c>
-      <c r="O647" s="8" t="s">
-        <v>290</v>
+      <c r="O647" s="8" t="n">
+        <v>29</v>
       </c>
       <c r="P647" s="1" t="n">
         <v>55.4</v>
@@ -44650,8 +44441,8 @@
       <c r="N648" s="1" t="n">
         <v>99.73801</v>
       </c>
-      <c r="O648" s="8" t="s">
-        <v>291</v>
+      <c r="O648" s="8" t="n">
+        <v>20</v>
       </c>
       <c r="P648" s="1" t="n">
         <v>56</v>
@@ -44719,8 +44510,8 @@
       <c r="N649" s="1" t="n">
         <v>99.99739</v>
       </c>
-      <c r="O649" s="8" t="s">
-        <v>292</v>
+      <c r="O649" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P649" s="1" t="n">
         <v>55.9</v>
@@ -44788,8 +44579,8 @@
       <c r="N650" s="1" t="n">
         <v>100.1141</v>
       </c>
-      <c r="O650" s="9" t="s">
-        <v>293</v>
+      <c r="O650" s="10" t="n">
+        <v>14</v>
       </c>
       <c r="P650" s="1" t="n">
         <v>52.1</v>
@@ -44857,8 +44648,8 @@
       <c r="N651" s="1" t="n">
         <v>100.1506</v>
       </c>
-      <c r="O651" s="8" t="s">
-        <v>294</v>
+      <c r="O651" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P651" s="1" t="n">
         <v>54.8</v>
@@ -44926,8 +44717,8 @@
       <c r="N652" s="1" t="n">
         <v>100.2858</v>
       </c>
-      <c r="O652" s="8" t="s">
-        <v>295</v>
+      <c r="O652" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P652" s="1" t="n">
         <v>55.1</v>
@@ -44995,8 +44786,8 @@
       <c r="N653" s="1" t="n">
         <v>100.4225</v>
       </c>
-      <c r="O653" s="8" t="s">
-        <v>296</v>
+      <c r="O653" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P653" s="1" t="n">
         <v>55.4</v>
@@ -45064,8 +44855,8 @@
       <c r="N654" s="1" t="n">
         <v>100.5997</v>
       </c>
-      <c r="O654" s="8" t="s">
-        <v>297</v>
+      <c r="O654" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P654" s="1" t="n">
         <v>55.8</v>
@@ -45133,8 +44924,8 @@
       <c r="N655" s="1" t="n">
         <v>100.701</v>
       </c>
-      <c r="O655" s="8" t="s">
-        <v>298</v>
+      <c r="O655" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P655" s="1" t="n">
         <v>55.3</v>
@@ -45202,8 +44993,8 @@
       <c r="N656" s="1" t="n">
         <v>100.743</v>
       </c>
-      <c r="O656" s="8" t="s">
-        <v>299</v>
+      <c r="O656" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P656" s="1" t="n">
         <v>55.6</v>
@@ -45271,8 +45062,8 @@
       <c r="N657" s="1" t="n">
         <v>100.7378</v>
       </c>
-      <c r="O657" s="8" t="s">
-        <v>300</v>
+      <c r="O657" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P657" s="1" t="n">
         <v>58.1</v>
@@ -45340,8 +45131,8 @@
       <c r="N658" s="1" t="n">
         <v>100.7513</v>
       </c>
-      <c r="O658" s="8" t="s">
-        <v>301</v>
+      <c r="O658" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P658" s="1" t="n">
         <v>55.8</v>
@@ -45409,8 +45200,8 @@
       <c r="N659" s="1" t="n">
         <v>100.7349</v>
       </c>
-      <c r="O659" s="8" t="s">
-        <v>300</v>
+      <c r="O659" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P659" s="1" t="n">
         <v>57.3</v>
@@ -45478,8 +45269,8 @@
       <c r="N660" s="1" t="n">
         <v>100.649</v>
       </c>
-      <c r="O660" s="8" t="s">
-        <v>302</v>
+      <c r="O660" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P660" s="1" t="n">
         <v>57.5</v>
@@ -45547,8 +45338,8 @@
       <c r="N661" s="1" t="n">
         <v>100.5798</v>
       </c>
-      <c r="O661" s="8" t="s">
-        <v>303</v>
+      <c r="O661" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P661" s="1" t="n">
         <v>54.9</v>
@@ -45616,8 +45407,8 @@
       <c r="N662" s="1" t="n">
         <v>100.5695</v>
       </c>
-      <c r="O662" s="9" t="s">
-        <v>304</v>
+      <c r="O662" s="10" t="n">
+        <v>14</v>
       </c>
       <c r="P662" s="1" t="n">
         <v>53.9</v>
@@ -45685,8 +45476,8 @@
       <c r="N663" s="1" t="n">
         <v>100.6125</v>
       </c>
-      <c r="O663" s="8" t="s">
-        <v>305</v>
+      <c r="O663" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P663" s="1" t="n">
         <v>53.3</v>
@@ -45754,8 +45545,8 @@
       <c r="N664" s="1" t="n">
         <v>100.7569</v>
       </c>
-      <c r="O664" s="8" t="s">
-        <v>306</v>
+      <c r="O664" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P664" s="1" t="n">
         <v>52.3</v>
@@ -45823,8 +45614,8 @@
       <c r="N665" s="1" t="n">
         <v>100.8422</v>
       </c>
-      <c r="O665" s="8" t="s">
-        <v>307</v>
+      <c r="O665" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P665" s="1" t="n">
         <v>51.6</v>
@@ -45892,8 +45683,8 @@
       <c r="N666" s="1" t="n">
         <v>100.9399</v>
       </c>
-      <c r="O666" s="8" t="s">
-        <v>308</v>
+      <c r="O666" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P666" s="1" t="n">
         <v>53.1</v>
@@ -45961,8 +45752,8 @@
       <c r="N667" s="1" t="n">
         <v>101.0485</v>
       </c>
-      <c r="O667" s="8" t="s">
-        <v>309</v>
+      <c r="O667" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P667" s="1" t="n">
         <v>53.1</v>
@@ -46030,8 +45821,8 @@
       <c r="N668" s="1" t="n">
         <v>101.0782</v>
       </c>
-      <c r="O668" s="8" t="s">
-        <v>310</v>
+      <c r="O668" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P668" s="1" t="n">
         <v>51.9</v>
@@ -46099,8 +45890,8 @@
       <c r="N669" s="1" t="n">
         <v>101.0988</v>
       </c>
-      <c r="O669" s="8" t="s">
-        <v>311</v>
+      <c r="O669" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P669" s="1" t="n">
         <v>51</v>
@@ -46168,8 +45959,8 @@
       <c r="N670" s="1" t="n">
         <v>101.0356</v>
       </c>
-      <c r="O670" s="8" t="s">
-        <v>312</v>
+      <c r="O670" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P670" s="1" t="n">
         <v>50</v>
@@ -46237,8 +46028,8 @@
       <c r="N671" s="1" t="n">
         <v>100.9412</v>
       </c>
-      <c r="O671" s="8" t="s">
-        <v>313</v>
+      <c r="O671" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="P671" s="1" t="n">
         <v>49.4</v>
@@ -46306,8 +46097,8 @@
       <c r="N672" s="1" t="n">
         <v>100.9035</v>
       </c>
-      <c r="O672" s="8" t="s">
-        <v>314</v>
+      <c r="O672" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P672" s="1" t="n">
         <v>48.4</v>
@@ -46375,8 +46166,8 @@
       <c r="N673" s="1" t="n">
         <v>100.7835</v>
       </c>
-      <c r="O673" s="8" t="s">
-        <v>315</v>
+      <c r="O673" s="8" t="n">
+        <v>11</v>
       </c>
       <c r="P673" s="1" t="n">
         <v>48</v>
@@ -46444,8 +46235,8 @@
       <c r="N674" s="1" t="n">
         <v>100.5734</v>
       </c>
-      <c r="O674" s="9" t="s">
-        <v>316</v>
+      <c r="O674" s="10" t="n">
+        <v>15</v>
       </c>
       <c r="P674" s="1" t="n">
         <v>48.2</v>
@@ -46513,8 +46304,8 @@
       <c r="N675" s="1" t="n">
         <v>100.3881</v>
       </c>
-      <c r="O675" s="8" t="s">
-        <v>317</v>
+      <c r="O675" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="P675" s="1" t="n">
         <v>49.5</v>
@@ -46582,8 +46373,8 @@
       <c r="N676" s="1" t="n">
         <v>100.2371</v>
       </c>
-      <c r="O676" s="8" t="s">
-        <v>318</v>
+      <c r="O676" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="P676" s="1" t="n">
         <v>51.8</v>
@@ -46651,8 +46442,8 @@
       <c r="N677" s="1" t="n">
         <v>100.2738</v>
       </c>
-      <c r="O677" s="8" t="s">
-        <v>319</v>
+      <c r="O677" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P677" s="1" t="n">
         <v>50.8</v>
@@ -46720,8 +46511,8 @@
       <c r="N678" s="1" t="n">
         <v>100.38</v>
       </c>
-      <c r="O678" s="8" t="s">
-        <v>320</v>
+      <c r="O678" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="P678" s="1" t="n">
         <v>51.3</v>
@@ -46789,8 +46580,8 @@
       <c r="N679" s="1" t="n">
         <v>100.5402</v>
       </c>
-      <c r="O679" s="8" t="s">
-        <v>321</v>
+      <c r="O679" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="Q679" s="1" t="n">
         <v>108.853</v>
@@ -46855,8 +46646,8 @@
       <c r="N680" s="1" t="n">
         <v>100.6351</v>
       </c>
-      <c r="O680" s="8" t="s">
-        <v>322</v>
+      <c r="O680" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="Q680" s="1" t="n">
         <v>108.863</v>
@@ -46921,8 +46712,8 @@
       <c r="N681" s="1" t="n">
         <v>100.7655</v>
       </c>
-      <c r="O681" s="8" t="s">
-        <v>323</v>
+      <c r="O681" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="Q681" s="1" t="n">
         <v>108.354</v>
@@ -46987,8 +46778,8 @@
       <c r="N682" s="1" t="n">
         <v>100.9474</v>
       </c>
-      <c r="O682" s="8" t="s">
-        <v>324</v>
+      <c r="O682" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="Q682" s="1" t="n">
         <v>107.845</v>
@@ -47053,8 +46844,8 @@
       <c r="N683" s="1" t="n">
         <v>101.1</v>
       </c>
-      <c r="O683" s="8" t="s">
-        <v>325</v>
+      <c r="O683" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="Q683" s="1" t="n">
         <v>107.336</v>
@@ -47119,8 +46910,8 @@
       <c r="N684" s="1" t="n">
         <v>101.2751</v>
       </c>
-      <c r="O684" s="8" t="s">
-        <v>326</v>
+      <c r="O684" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="Q684" s="1" t="n">
         <v>107.780666666667</v>
@@ -47185,8 +46976,8 @@
       <c r="N685" s="1" t="n">
         <v>101.4681</v>
       </c>
-      <c r="O685" s="8" t="s">
-        <v>327</v>
+      <c r="O685" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="Q685" s="1" t="n">
         <v>108.225333333333</v>
@@ -47251,8 +47042,8 @@
       <c r="N686" s="1" t="n">
         <v>101.6527</v>
       </c>
-      <c r="O686" s="9" t="s">
-        <v>328</v>
+      <c r="O686" s="10" t="n">
+        <v>13</v>
       </c>
       <c r="Q686" s="1" t="n">
         <v>108.67</v>
@@ -47317,8 +47108,8 @@
       <c r="N687" s="1" t="n">
         <v>101.7798</v>
       </c>
-      <c r="O687" s="8" t="s">
-        <v>329</v>
+      <c r="O687" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="Q687" s="1" t="n">
         <v>108.575</v>
@@ -47383,8 +47174,8 @@
       <c r="N688" s="1" t="n">
         <v>101.7938</v>
       </c>
-      <c r="O688" s="8" t="s">
-        <v>330</v>
+      <c r="O688" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="Q688" s="1" t="n">
         <v>108.48</v>
@@ -47449,8 +47240,8 @@
       <c r="N689" s="1" t="n">
         <v>101.7343</v>
       </c>
-      <c r="O689" s="8" t="s">
-        <v>331</v>
+      <c r="O689" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="Q689" s="1" t="n">
         <v>108.385</v>
@@ -47513,8 +47304,8 @@
       <c r="N690" s="1" t="n">
         <v>101.6574</v>
       </c>
-      <c r="O690" s="8" t="s">
-        <v>332</v>
+      <c r="O690" s="8" t="n">
+        <v>12</v>
       </c>
       <c r="Q690" s="1" t="n">
         <v>108.374333333333</v>
@@ -47577,8 +47368,8 @@
       <c r="N691" s="1" t="n">
         <v>101.6687</v>
       </c>
-      <c r="O691" s="8" t="s">
-        <v>333</v>
+      <c r="O691" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="Q691" s="1" t="n">
         <v>108.363666666667</v>
@@ -47641,8 +47432,8 @@
       <c r="N692" s="1" t="n">
         <v>101.7343</v>
       </c>
-      <c r="O692" s="8" t="s">
-        <v>334</v>
+      <c r="O692" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="Q692" s="1" t="n">
         <v>108.353</v>
@@ -47705,8 +47496,8 @@
       <c r="N693" s="1" t="n">
         <v>101.7983</v>
       </c>
-      <c r="O693" s="8" t="s">
-        <v>335</v>
+      <c r="O693" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="Q693" s="1" t="n">
         <v>108.533</v>
@@ -47769,8 +47560,8 @@
       <c r="N694" s="1" t="n">
         <v>101.817</v>
       </c>
-      <c r="O694" s="8" t="s">
-        <v>336</v>
+      <c r="O694" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="Q694" s="1" t="n">
         <v>108.713</v>
@@ -47833,8 +47624,8 @@
       <c r="N695" s="1" t="n">
         <v>101.8507</v>
       </c>
-      <c r="O695" s="8" t="s">
-        <v>337</v>
+      <c r="O695" s="8" t="n">
+        <v>13</v>
       </c>
       <c r="Q695" s="1" t="n">
         <v>108.893</v>
@@ -47897,8 +47688,8 @@
       <c r="N696" s="1" t="n">
         <v>101.8711</v>
       </c>
-      <c r="O696" s="8" t="s">
-        <v>338</v>
+      <c r="O696" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="Q696" s="1" t="n">
         <v>107.780666666667</v>
@@ -47959,8 +47750,8 @@
       <c r="N697" s="1" t="n">
         <v>101.9196</v>
       </c>
-      <c r="O697" s="8" t="s">
-        <v>339</v>
+      <c r="O697" s="8" t="n">
+        <v>14</v>
       </c>
       <c r="Q697" s="1" t="n">
         <v>108.225333333333</v>
@@ -48020,8 +47811,8 @@
       <c r="G699" s="7"/>
       <c r="H699" s="7"/>
       <c r="I699" s="7"/>
-      <c r="L699" s="10" t="s">
-        <v>340</v>
+      <c r="L699" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="M699" s="7"/>
       <c r="N699" s="7"/>
@@ -48058,31 +47849,31 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="E2:E697 C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="O2:O697 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>341</v>
+      <c r="B1" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" s="12" t="n">
+      <c r="A2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="13" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -48091,10 +47882,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="B3" s="12" t="n">
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="13" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -48103,10 +47894,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="13" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -48115,10 +47906,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="13" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -48127,10 +47918,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="13" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -48139,10 +47930,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="13" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -48151,10 +47942,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="13" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -48163,10 +47954,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="13" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -48175,10 +47966,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="13" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -48187,10 +47978,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="13" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -48199,10 +47990,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="13" t="n">
         <v>11</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -48211,10 +48002,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="13" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="0" t="n">
